--- a/План/Sources.xlsx
+++ b/План/Sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>№</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Строки</t>
   </si>
   <si>
-    <t>Рег выр</t>
-  </si>
-  <si>
     <t>Числа</t>
   </si>
   <si>
@@ -288,6 +285,66 @@
   </si>
   <si>
     <t>Литералы</t>
+  </si>
+  <si>
+    <t>Константы</t>
+  </si>
+  <si>
+    <t>Обозначения</t>
+  </si>
+  <si>
+    <t>Прочие</t>
+  </si>
+  <si>
+    <t>Не операторы</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Область видимости</t>
+  </si>
+  <si>
+    <t>Аргументы методов</t>
+  </si>
+  <si>
+    <t>Proc и lambda</t>
+  </si>
+  <si>
+    <t>Замкнутые выражения</t>
+  </si>
+  <si>
+    <t>Методы доступа</t>
+  </si>
+  <si>
+    <t>Типы</t>
+  </si>
+  <si>
+    <t>Регул выр</t>
+  </si>
+  <si>
+    <t>Числовые методы</t>
+  </si>
+  <si>
+    <t>Десятичные числа</t>
+  </si>
+  <si>
+    <t>Комплексные числа</t>
+  </si>
+  <si>
+    <t>Рациональные числа</t>
+  </si>
+  <si>
+    <t>Векторы и матрицы</t>
+  </si>
+  <si>
+    <t>Случайные числа</t>
+  </si>
+  <si>
+    <t>Литералы регул выр</t>
+  </si>
+  <si>
+    <t>Методы</t>
   </si>
 </sst>
 </file>
@@ -338,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +420,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -950,11 +1085,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,29 +1175,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1034,9 +1236,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1046,6 +1245,258 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1054,11 +1505,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF990033"/>
-      <color rgb="FFCC0066"/>
-      <color rgb="FFFF6600"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FFFF0066"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF6666FF"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF0066CC"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF00CCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FF00FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1335,3573 +1791,3817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J272"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.7109375" style="77" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.7109375" style="67" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
+      <c r="A1" s="13"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="81" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:10" s="71" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="43">
+        <v>45</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="46">
+        <v>46</v>
+      </c>
+      <c r="E5" s="47">
+        <v>47</v>
+      </c>
+      <c r="F5" s="47">
+        <v>10</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="46">
+        <v>48</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46">
+        <v>49</v>
+      </c>
+      <c r="E7" s="47">
+        <v>46</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="46">
+        <v>51</v>
+      </c>
+      <c r="E8" s="47">
+        <v>46</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="49">
+        <v>52</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="73">
+        <v>3</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="52">
+        <v>63</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="52">
+        <v>64</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="55">
+        <v>69</v>
+      </c>
+      <c r="E12" s="56">
+        <v>90</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56">
+        <v>36</v>
+      </c>
+      <c r="I12" s="56">
+        <v>47</v>
+      </c>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="55">
+        <v>99</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="58">
+        <v>90</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59">
+        <v>35</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59">
+        <v>47</v>
+      </c>
+      <c r="I14" s="59">
+        <v>61</v>
+      </c>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="58">
+        <v>93</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59">
+        <v>37</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="81">
+        <v>95</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="81">
+        <v>98</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="84">
+        <v>4</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="87">
+        <v>115</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88">
+        <v>16</v>
+      </c>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="87">
+        <v>116</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="87">
+        <v>117</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="87">
+        <v>118</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="93">
+        <v>123</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="95"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="93">
+        <v>133</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="93">
+        <v>136</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="93">
+        <v>136</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="93">
+        <v>138</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="99">
+        <v>140</v>
+      </c>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="96"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="99">
+        <v>143</v>
+      </c>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="105">
+        <v>149</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="108">
+        <v>5</v>
+      </c>
+      <c r="B31" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="50">
-        <v>45</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="53">
-        <v>46</v>
-      </c>
-      <c r="E5" s="54">
-        <v>47</v>
-      </c>
-      <c r="F5" s="54">
+      <c r="C31" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="111">
+        <v>152</v>
+      </c>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112">
+        <v>18</v>
+      </c>
+      <c r="G31" s="112">
+        <v>134</v>
+      </c>
+      <c r="H31" s="112">
+        <v>56</v>
+      </c>
+      <c r="I31" s="112">
+        <v>73</v>
+      </c>
+      <c r="J31" s="113">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="117">
+        <v>163</v>
+      </c>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118">
+        <v>18</v>
+      </c>
+      <c r="G32" s="118">
+        <v>91</v>
+      </c>
+      <c r="H32" s="118">
+        <v>60</v>
+      </c>
+      <c r="I32" s="118">
+        <v>79</v>
+      </c>
+      <c r="J32" s="119">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="117">
+        <v>166</v>
+      </c>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118">
+        <v>63</v>
+      </c>
+      <c r="G33" s="118">
+        <v>94</v>
+      </c>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="119">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="117">
+        <v>178</v>
+      </c>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118">
+        <v>18</v>
+      </c>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="119"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="117">
+        <v>184</v>
+      </c>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118">
+        <v>59</v>
+      </c>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="119"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="120"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="123">
+        <v>194</v>
+      </c>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124">
+        <v>21</v>
+      </c>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="126">
+        <v>6</v>
+      </c>
+      <c r="B37" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="129">
+        <v>261</v>
+      </c>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="131"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="126"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="129">
+        <v>262</v>
+      </c>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="132"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="135">
+        <v>280</v>
+      </c>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="137"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="132"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="135">
+        <v>266</v>
+      </c>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="137"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="132"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="135">
+        <v>278</v>
+      </c>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="135">
+        <v>228</v>
+      </c>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="137"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="135">
+        <v>283</v>
+      </c>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="137"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="135">
+        <v>100</v>
+      </c>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="137"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="135">
+        <v>294</v>
+      </c>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="135">
+        <v>286</v>
+      </c>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
+    </row>
+    <row r="47" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="138"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="140">
+        <v>301</v>
+      </c>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="142"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="300">
+        <v>7</v>
+      </c>
+      <c r="B48" s="301" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="302" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="144">
+        <v>237</v>
+      </c>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="146"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="147"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="150">
+        <v>246</v>
+      </c>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="152"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="147"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="150">
+        <v>252</v>
+      </c>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="152"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="147"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="147"/>
+      <c r="B52" s="148"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="152"/>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="303">
+        <v>8</v>
+      </c>
+      <c r="B54" s="304" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="305" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="159">
+        <v>393</v>
+      </c>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="161"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="162"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="306" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="165">
+        <v>401</v>
+      </c>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="167"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="162"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="306" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="165">
+        <v>408</v>
+      </c>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="162"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="165">
+        <v>414</v>
+      </c>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="167"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="162"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="306" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="165"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="167"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="162"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="164" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="165"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="167"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="162"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="165"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="167"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="162"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="165"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="167"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="168"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="170" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="171"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="307">
+        <v>9</v>
+      </c>
+      <c r="B63" s="308" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="309" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="174">
+        <v>364</v>
+      </c>
+      <c r="E63" s="175"/>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="175"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="176"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="177"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="182"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="180"/>
+      <c r="E65" s="181"/>
+      <c r="F65" s="181"/>
+      <c r="G65" s="181"/>
+      <c r="H65" s="181"/>
+      <c r="I65" s="181"/>
+      <c r="J65" s="182"/>
+    </row>
+    <row r="66" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="183"/>
+      <c r="B66" s="184"/>
+      <c r="C66" s="185"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="187"/>
+      <c r="H66" s="187"/>
+      <c r="I66" s="187"/>
+      <c r="J66" s="188"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="310">
         <v>10</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="53">
-        <v>48</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="53">
-        <v>49</v>
-      </c>
-      <c r="E7" s="54">
-        <v>46</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="53">
-        <v>51</v>
-      </c>
-      <c r="E8" s="54">
-        <v>46</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="53">
-        <v>52</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57">
+      <c r="B67" s="311" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="312" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="189">
+        <v>371</v>
+      </c>
+      <c r="E67" s="190"/>
+      <c r="F67" s="190"/>
+      <c r="G67" s="190"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="190"/>
+      <c r="J67" s="191"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="192"/>
+      <c r="B68" s="193"/>
+      <c r="C68" s="318" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="194">
+        <v>371</v>
+      </c>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="196"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="192"/>
+      <c r="B69" s="193"/>
+      <c r="C69" s="318" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="194">
+        <v>373</v>
+      </c>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="196"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="319"/>
+      <c r="B70" s="320"/>
+      <c r="C70" s="321"/>
+      <c r="D70" s="322"/>
+      <c r="E70" s="323"/>
+      <c r="F70" s="323"/>
+      <c r="G70" s="323"/>
+      <c r="H70" s="323"/>
+      <c r="I70" s="323"/>
+      <c r="J70" s="324"/>
+    </row>
+    <row r="71" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="197"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="201"/>
+      <c r="F71" s="201"/>
+      <c r="G71" s="201"/>
+      <c r="H71" s="201"/>
+      <c r="I71" s="201"/>
+      <c r="J71" s="202"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="313">
         <v>11</v>
       </c>
-      <c r="G10" s="57">
-        <v>19</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
-        <v>3</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="23" t="s">
+      <c r="B72" s="314" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="315" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="203">
+        <v>385</v>
+      </c>
+      <c r="E72" s="204"/>
+      <c r="F72" s="204"/>
+      <c r="G72" s="204"/>
+      <c r="H72" s="204"/>
+      <c r="I72" s="204"/>
+      <c r="J72" s="205"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="206"/>
+      <c r="B73" s="207"/>
+      <c r="C73" s="316" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="208">
+        <v>385</v>
+      </c>
+      <c r="E73" s="209"/>
+      <c r="F73" s="209"/>
+      <c r="G73" s="209"/>
+      <c r="H73" s="209"/>
+      <c r="I73" s="209"/>
+      <c r="J73" s="210"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="206"/>
+      <c r="B74" s="207"/>
+      <c r="C74" s="316" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="208">
+        <v>387</v>
+      </c>
+      <c r="E74" s="209"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
+      <c r="I74" s="209"/>
+      <c r="J74" s="210"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="206"/>
+      <c r="B75" s="207"/>
+      <c r="C75" s="316" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="208">
+        <v>388</v>
+      </c>
+      <c r="E75" s="209"/>
+      <c r="F75" s="209"/>
+      <c r="G75" s="209"/>
+      <c r="H75" s="209"/>
+      <c r="I75" s="209"/>
+      <c r="J75" s="210"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="206"/>
+      <c r="B76" s="207"/>
+      <c r="C76" s="316" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="208">
+        <v>389</v>
+      </c>
+      <c r="E76" s="209"/>
+      <c r="F76" s="209"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="210"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="206"/>
+      <c r="B77" s="207"/>
+      <c r="C77" s="316" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="208">
+        <v>390</v>
+      </c>
+      <c r="E77" s="209"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="210"/>
+    </row>
+    <row r="78" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="211"/>
+      <c r="B78" s="212"/>
+      <c r="C78" s="317" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="213">
+        <v>390</v>
+      </c>
+      <c r="E78" s="214"/>
+      <c r="F78" s="214"/>
+      <c r="G78" s="214"/>
+      <c r="H78" s="214"/>
+      <c r="I78" s="214"/>
+      <c r="J78" s="215"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="216">
         <v>12</v>
       </c>
-      <c r="D13" s="62">
+      <c r="B79" s="217" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="218"/>
+      <c r="D79" s="219"/>
+      <c r="E79" s="220"/>
+      <c r="F79" s="220"/>
+      <c r="G79" s="220"/>
+      <c r="H79" s="220"/>
+      <c r="I79" s="220"/>
+      <c r="J79" s="221"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="222"/>
+      <c r="B80" s="223"/>
+      <c r="C80" s="224"/>
+      <c r="D80" s="225"/>
+      <c r="E80" s="226"/>
+      <c r="F80" s="226"/>
+      <c r="G80" s="226"/>
+      <c r="H80" s="226"/>
+      <c r="I80" s="226"/>
+      <c r="J80" s="227"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="222"/>
+      <c r="B81" s="223"/>
+      <c r="C81" s="224"/>
+      <c r="D81" s="225"/>
+      <c r="E81" s="226"/>
+      <c r="F81" s="226"/>
+      <c r="G81" s="226"/>
+      <c r="H81" s="226"/>
+      <c r="I81" s="226"/>
+      <c r="J81" s="227"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="222"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="225"/>
+      <c r="E82" s="226"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="226"/>
+      <c r="H82" s="226"/>
+      <c r="I82" s="226"/>
+      <c r="J82" s="227"/>
+    </row>
+    <row r="83" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="228"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="231"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="232"/>
+      <c r="G83" s="232"/>
+      <c r="H83" s="232"/>
+      <c r="I83" s="232"/>
+      <c r="J83" s="233"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="234">
+        <v>13</v>
+      </c>
+      <c r="B84" s="235" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="236"/>
+      <c r="D84" s="237"/>
+      <c r="E84" s="238"/>
+      <c r="F84" s="238"/>
+      <c r="G84" s="238"/>
+      <c r="H84" s="238"/>
+      <c r="I84" s="238"/>
+      <c r="J84" s="239"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="240"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="242"/>
+      <c r="D85" s="243"/>
+      <c r="E85" s="244"/>
+      <c r="F85" s="244"/>
+      <c r="G85" s="244"/>
+      <c r="H85" s="244"/>
+      <c r="I85" s="244"/>
+      <c r="J85" s="245"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="240"/>
+      <c r="B86" s="241"/>
+      <c r="C86" s="242"/>
+      <c r="D86" s="243"/>
+      <c r="E86" s="244"/>
+      <c r="F86" s="244"/>
+      <c r="G86" s="244"/>
+      <c r="H86" s="244"/>
+      <c r="I86" s="244"/>
+      <c r="J86" s="245"/>
+    </row>
+    <row r="87" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="246"/>
+      <c r="B87" s="247"/>
+      <c r="C87" s="248"/>
+      <c r="D87" s="249"/>
+      <c r="E87" s="250"/>
+      <c r="F87" s="250"/>
+      <c r="G87" s="250"/>
+      <c r="H87" s="250"/>
+      <c r="I87" s="250"/>
+      <c r="J87" s="251"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="252">
+        <v>14</v>
+      </c>
+      <c r="B88" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="254"/>
+      <c r="D88" s="255"/>
+      <c r="E88" s="256"/>
+      <c r="F88" s="256"/>
+      <c r="G88" s="256"/>
+      <c r="H88" s="256"/>
+      <c r="I88" s="256"/>
+      <c r="J88" s="257"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="258"/>
+      <c r="B89" s="259"/>
+      <c r="C89" s="260"/>
+      <c r="D89" s="261"/>
+      <c r="E89" s="262"/>
+      <c r="F89" s="262"/>
+      <c r="G89" s="262"/>
+      <c r="H89" s="262"/>
+      <c r="I89" s="262"/>
+      <c r="J89" s="263"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="258"/>
+      <c r="B90" s="259"/>
+      <c r="C90" s="260"/>
+      <c r="D90" s="261"/>
+      <c r="E90" s="262"/>
+      <c r="F90" s="262"/>
+      <c r="G90" s="262"/>
+      <c r="H90" s="262"/>
+      <c r="I90" s="262"/>
+      <c r="J90" s="263"/>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="264"/>
+      <c r="B91" s="265"/>
+      <c r="C91" s="266"/>
+      <c r="D91" s="267"/>
+      <c r="E91" s="268"/>
+      <c r="F91" s="268"/>
+      <c r="G91" s="268"/>
+      <c r="H91" s="268"/>
+      <c r="I91" s="268"/>
+      <c r="J91" s="269"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="270">
+        <v>15</v>
+      </c>
+      <c r="B92" s="271" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="63">
-        <v>90</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63">
-        <v>36</v>
-      </c>
-      <c r="I13" s="63">
-        <v>47</v>
-      </c>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="62">
-        <v>99</v>
-      </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="65">
-        <v>90</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66">
-        <v>35</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66">
-        <v>47</v>
-      </c>
-      <c r="I15" s="66">
-        <v>61</v>
-      </c>
-      <c r="J15" s="67"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="65">
+      <c r="C92" s="272"/>
+      <c r="D92" s="273"/>
+      <c r="E92" s="274"/>
+      <c r="F92" s="274"/>
+      <c r="G92" s="274"/>
+      <c r="H92" s="274"/>
+      <c r="I92" s="274"/>
+      <c r="J92" s="275"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="276"/>
+      <c r="B93" s="277"/>
+      <c r="C93" s="278"/>
+      <c r="D93" s="279"/>
+      <c r="E93" s="280"/>
+      <c r="F93" s="280"/>
+      <c r="G93" s="280"/>
+      <c r="H93" s="280"/>
+      <c r="I93" s="280"/>
+      <c r="J93" s="281"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="276"/>
+      <c r="B94" s="277"/>
+      <c r="C94" s="278"/>
+      <c r="D94" s="279"/>
+      <c r="E94" s="280"/>
+      <c r="F94" s="280"/>
+      <c r="G94" s="280"/>
+      <c r="H94" s="280"/>
+      <c r="I94" s="280"/>
+      <c r="J94" s="281"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="276"/>
+      <c r="B95" s="277"/>
+      <c r="C95" s="278"/>
+      <c r="D95" s="279"/>
+      <c r="E95" s="280"/>
+      <c r="F95" s="280"/>
+      <c r="G95" s="280"/>
+      <c r="H95" s="280"/>
+      <c r="I95" s="280"/>
+      <c r="J95" s="281"/>
+    </row>
+    <row r="96" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="282"/>
+      <c r="B96" s="283"/>
+      <c r="C96" s="284"/>
+      <c r="D96" s="285"/>
+      <c r="E96" s="286"/>
+      <c r="F96" s="286"/>
+      <c r="G96" s="286"/>
+      <c r="H96" s="286"/>
+      <c r="I96" s="286"/>
+      <c r="J96" s="287"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="288">
+        <v>16</v>
+      </c>
+      <c r="B97" s="289" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="290" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66">
-        <v>37</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="68">
-        <v>95</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="71">
-        <v>115</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72">
-        <v>16</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="65">
-        <v>123</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="65">
-        <v>133</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="65">
-        <v>136</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="65">
-        <v>136</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="65">
-        <v>138</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="68">
-        <v>140</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="71">
-        <v>152</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72">
-        <v>18</v>
-      </c>
-      <c r="G25" s="72">
-        <v>134</v>
-      </c>
-      <c r="H25" s="72">
-        <v>56</v>
-      </c>
-      <c r="I25" s="72">
-        <v>73</v>
-      </c>
-      <c r="J25" s="73">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="65">
-        <v>163</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66">
-        <v>18</v>
-      </c>
-      <c r="G26" s="66">
-        <v>91</v>
-      </c>
-      <c r="H26" s="66">
-        <v>60</v>
-      </c>
-      <c r="I26" s="66">
-        <v>79</v>
-      </c>
-      <c r="J26" s="67">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="65">
-        <v>184</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66">
-        <v>59</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="65">
-        <v>178</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66">
-        <v>18</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="65">
-        <v>166</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66">
-        <v>63</v>
-      </c>
-      <c r="G29" s="66">
-        <v>94</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="67">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="68">
-        <v>192</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69">
-        <v>21</v>
-      </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>6</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="67"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="67"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <v>7</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="67"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="67"/>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="70"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>8</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="67"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="67"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="67"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="67"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="67"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="67"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="67"/>
-    </row>
-    <row r="54" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="70"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="15">
-        <v>9</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="73"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="67"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="67"/>
-    </row>
-    <row r="58" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="70"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="15">
-        <v>10</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="73"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="67"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="67"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="70"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="15">
-        <v>11</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="73"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="67"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="67"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="67"/>
-    </row>
-    <row r="67" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="70"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
-        <v>12</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="73"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="67"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="67"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="67"/>
-    </row>
-    <row r="72" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="70"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="15">
-        <v>13</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="67"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="67"/>
-    </row>
-    <row r="76" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="70"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="15">
-        <v>14</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="73"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="67"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
-    </row>
-    <row r="80" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="32"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="70"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="15">
-        <v>15</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="73"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="67"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="67"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="67"/>
-    </row>
-    <row r="85" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="32"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="70"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="15">
-        <v>16</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="73"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="67"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="67"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="67"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="67"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="67"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="67"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="67"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="18"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="67"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="18"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="67"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="18"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="67"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="18"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="67"/>
+      <c r="D97" s="291"/>
+      <c r="E97" s="292"/>
+      <c r="F97" s="292"/>
+      <c r="G97" s="292"/>
+      <c r="H97" s="292"/>
+      <c r="I97" s="292"/>
+      <c r="J97" s="293"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="18"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="67"/>
+      <c r="A98" s="294"/>
+      <c r="B98" s="295"/>
+      <c r="C98" s="296"/>
+      <c r="D98" s="297"/>
+      <c r="E98" s="298"/>
+      <c r="F98" s="298"/>
+      <c r="G98" s="298"/>
+      <c r="H98" s="298"/>
+      <c r="I98" s="298"/>
+      <c r="J98" s="299"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="18"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="67"/>
+      <c r="A99" s="294"/>
+      <c r="B99" s="295"/>
+      <c r="C99" s="296"/>
+      <c r="D99" s="297"/>
+      <c r="E99" s="298"/>
+      <c r="F99" s="298"/>
+      <c r="G99" s="298"/>
+      <c r="H99" s="298"/>
+      <c r="I99" s="298"/>
+      <c r="J99" s="299"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="18"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="67"/>
+      <c r="A100" s="294"/>
+      <c r="B100" s="295"/>
+      <c r="C100" s="296"/>
+      <c r="D100" s="297"/>
+      <c r="E100" s="298"/>
+      <c r="F100" s="298"/>
+      <c r="G100" s="298"/>
+      <c r="H100" s="298"/>
+      <c r="I100" s="298"/>
+      <c r="J100" s="299"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="18"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="67"/>
+      <c r="A101" s="294"/>
+      <c r="B101" s="295"/>
+      <c r="C101" s="296"/>
+      <c r="D101" s="297"/>
+      <c r="E101" s="298"/>
+      <c r="F101" s="298"/>
+      <c r="G101" s="298"/>
+      <c r="H101" s="298"/>
+      <c r="I101" s="298"/>
+      <c r="J101" s="299"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="67"/>
+      <c r="A102" s="294"/>
+      <c r="B102" s="295"/>
+      <c r="C102" s="296"/>
+      <c r="D102" s="297"/>
+      <c r="E102" s="298"/>
+      <c r="F102" s="298"/>
+      <c r="G102" s="298"/>
+      <c r="H102" s="298"/>
+      <c r="I102" s="298"/>
+      <c r="J102" s="299"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="67"/>
+      <c r="A103" s="294"/>
+      <c r="B103" s="295"/>
+      <c r="C103" s="296"/>
+      <c r="D103" s="297"/>
+      <c r="E103" s="298"/>
+      <c r="F103" s="298"/>
+      <c r="G103" s="298"/>
+      <c r="H103" s="298"/>
+      <c r="I103" s="298"/>
+      <c r="J103" s="299"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="67"/>
+      <c r="A104" s="294"/>
+      <c r="B104" s="295"/>
+      <c r="C104" s="296"/>
+      <c r="D104" s="297"/>
+      <c r="E104" s="298"/>
+      <c r="F104" s="298"/>
+      <c r="G104" s="298"/>
+      <c r="H104" s="298"/>
+      <c r="I104" s="298"/>
+      <c r="J104" s="299"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="67"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="60"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="18"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="67"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="60"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="67"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="60"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="18"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="67"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="60"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="67"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="60"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="18"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="67"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="60"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="18"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="67"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="60"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="18"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="67"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="60"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="67"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="60"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="67"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="60"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="67"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="60"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="67"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="60"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="67"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="60"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="18"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="67"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="60"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="67"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="60"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-      <c r="J120" s="67"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="60"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="67"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="60"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="67"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="60"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="67"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="59"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="60"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="18"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="67"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="60"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="66"/>
-      <c r="J125" s="67"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="59"/>
+      <c r="I125" s="59"/>
+      <c r="J125" s="60"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="67"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="60"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="67"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="60"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="67"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="60"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="67"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="60"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="67"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="60"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="67"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="60"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="67"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="59"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="60"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="66"/>
-      <c r="J133" s="67"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="59"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="60"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="66"/>
-      <c r="G134" s="66"/>
-      <c r="H134" s="66"/>
-      <c r="I134" s="66"/>
-      <c r="J134" s="67"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="60"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="66"/>
-      <c r="J135" s="67"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="59"/>
+      <c r="J135" s="60"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="67"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="59"/>
+      <c r="I136" s="59"/>
+      <c r="J136" s="60"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="67"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="59"/>
+      <c r="I137" s="59"/>
+      <c r="J137" s="60"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="67"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="59"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="60"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
-      <c r="J139" s="67"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="59"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="60"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="18"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="66"/>
-      <c r="J140" s="67"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="60"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="67"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="59"/>
+      <c r="H141" s="59"/>
+      <c r="I141" s="59"/>
+      <c r="J141" s="60"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="18"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="67"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="59"/>
+      <c r="I142" s="59"/>
+      <c r="J142" s="60"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="18"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="67"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="59"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="60"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="18"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="66"/>
-      <c r="H144" s="66"/>
-      <c r="I144" s="66"/>
-      <c r="J144" s="67"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="59"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="60"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="18"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="66"/>
-      <c r="I145" s="66"/>
-      <c r="J145" s="67"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="60"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="66"/>
-      <c r="G146" s="66"/>
-      <c r="H146" s="66"/>
-      <c r="I146" s="66"/>
-      <c r="J146" s="67"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="59"/>
+      <c r="J146" s="60"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="66"/>
-      <c r="J147" s="67"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="60"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="18"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="66"/>
-      <c r="H148" s="66"/>
-      <c r="I148" s="66"/>
-      <c r="J148" s="67"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="59"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="60"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="18"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="67"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="59"/>
+      <c r="H149" s="59"/>
+      <c r="I149" s="59"/>
+      <c r="J149" s="60"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="18"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="67"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="60"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="18"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="67"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="60"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="18"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="66"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="67"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="60"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="18"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="66"/>
-      <c r="J153" s="67"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="60"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="18"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="66"/>
-      <c r="J154" s="67"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="60"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="66"/>
-      <c r="J155" s="67"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59"/>
+      <c r="H155" s="59"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="60"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="67"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="59"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="60"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="18"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="66"/>
-      <c r="J157" s="67"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="59"/>
+      <c r="H157" s="59"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="60"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="18"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="66"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="67"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="59"/>
+      <c r="I158" s="59"/>
+      <c r="J158" s="60"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" s="18"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="66"/>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="66"/>
-      <c r="J159" s="67"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="59"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="60"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="18"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66"/>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="67"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="59"/>
+      <c r="I160" s="59"/>
+      <c r="J160" s="60"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="18"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="67"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="60"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="18"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="67"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="59"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="60"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="18"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="67"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="60"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="18"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="66"/>
-      <c r="H164" s="66"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="67"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="60"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="18"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="66"/>
-      <c r="H165" s="66"/>
-      <c r="I165" s="66"/>
-      <c r="J165" s="67"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="60"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="18"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="66"/>
-      <c r="G166" s="66"/>
-      <c r="H166" s="66"/>
-      <c r="I166" s="66"/>
-      <c r="J166" s="67"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="60"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="66"/>
-      <c r="G167" s="66"/>
-      <c r="H167" s="66"/>
-      <c r="I167" s="66"/>
-      <c r="J167" s="67"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="59"/>
+      <c r="J167" s="60"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="18"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="65"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
-      <c r="I168" s="66"/>
-      <c r="J168" s="67"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="60"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="18"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="67"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="60"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="18"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="65"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
-      <c r="J170" s="67"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="60"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="18"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="66"/>
-      <c r="F171" s="66"/>
-      <c r="G171" s="66"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="66"/>
-      <c r="J171" s="67"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="60"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="18"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="65"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="66"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="66"/>
-      <c r="J172" s="67"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="60"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="18"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="65"/>
-      <c r="E173" s="66"/>
-      <c r="F173" s="66"/>
-      <c r="G173" s="66"/>
-      <c r="H173" s="66"/>
-      <c r="I173" s="66"/>
-      <c r="J173" s="67"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="59"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="59"/>
+      <c r="H173" s="59"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="60"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="18"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="65"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="66"/>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="67"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="59"/>
+      <c r="G174" s="59"/>
+      <c r="H174" s="59"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="60"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="18"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="66"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="66"/>
-      <c r="H175" s="66"/>
-      <c r="I175" s="66"/>
-      <c r="J175" s="67"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="59"/>
+      <c r="H175" s="59"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="60"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="18"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="66"/>
-      <c r="F176" s="66"/>
-      <c r="G176" s="66"/>
-      <c r="H176" s="66"/>
-      <c r="I176" s="66"/>
-      <c r="J176" s="67"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="59"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="59"/>
+      <c r="H176" s="59"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="60"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="18"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="65"/>
-      <c r="E177" s="66"/>
-      <c r="F177" s="66"/>
-      <c r="G177" s="66"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="66"/>
-      <c r="J177" s="67"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="59"/>
+      <c r="H177" s="59"/>
+      <c r="I177" s="59"/>
+      <c r="J177" s="60"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="18"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="66"/>
-      <c r="F178" s="66"/>
-      <c r="G178" s="66"/>
-      <c r="H178" s="66"/>
-      <c r="I178" s="66"/>
-      <c r="J178" s="67"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="59"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="59"/>
+      <c r="H178" s="59"/>
+      <c r="I178" s="59"/>
+      <c r="J178" s="60"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="18"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="66"/>
-      <c r="F179" s="66"/>
-      <c r="G179" s="66"/>
-      <c r="H179" s="66"/>
-      <c r="I179" s="66"/>
-      <c r="J179" s="67"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="59"/>
+      <c r="F179" s="59"/>
+      <c r="G179" s="59"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="59"/>
+      <c r="J179" s="60"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="18"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="65"/>
-      <c r="E180" s="66"/>
-      <c r="F180" s="66"/>
-      <c r="G180" s="66"/>
-      <c r="H180" s="66"/>
-      <c r="I180" s="66"/>
-      <c r="J180" s="67"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="59"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="60"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="18"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="66"/>
-      <c r="F181" s="66"/>
-      <c r="G181" s="66"/>
-      <c r="H181" s="66"/>
-      <c r="I181" s="66"/>
-      <c r="J181" s="67"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="59"/>
+      <c r="H181" s="59"/>
+      <c r="I181" s="59"/>
+      <c r="J181" s="60"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="18"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="65"/>
-      <c r="E182" s="66"/>
-      <c r="F182" s="66"/>
-      <c r="G182" s="66"/>
-      <c r="H182" s="66"/>
-      <c r="I182" s="66"/>
-      <c r="J182" s="67"/>
+      <c r="A182" s="16"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="59"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="59"/>
+      <c r="I182" s="59"/>
+      <c r="J182" s="60"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="18"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="65"/>
-      <c r="E183" s="66"/>
-      <c r="F183" s="66"/>
-      <c r="G183" s="66"/>
-      <c r="H183" s="66"/>
-      <c r="I183" s="66"/>
-      <c r="J183" s="67"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="60"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="18"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="65"/>
-      <c r="E184" s="66"/>
-      <c r="F184" s="66"/>
-      <c r="G184" s="66"/>
-      <c r="H184" s="66"/>
-      <c r="I184" s="66"/>
-      <c r="J184" s="67"/>
+      <c r="A184" s="16"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="59"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="60"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="18"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="66"/>
-      <c r="F185" s="66"/>
-      <c r="G185" s="66"/>
-      <c r="H185" s="66"/>
-      <c r="I185" s="66"/>
-      <c r="J185" s="67"/>
+      <c r="A185" s="16"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="60"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="18"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="65"/>
-      <c r="E186" s="66"/>
-      <c r="F186" s="66"/>
-      <c r="G186" s="66"/>
-      <c r="H186" s="66"/>
-      <c r="I186" s="66"/>
-      <c r="J186" s="67"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="59"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="60"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="18"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="66"/>
-      <c r="F187" s="66"/>
-      <c r="G187" s="66"/>
-      <c r="H187" s="66"/>
-      <c r="I187" s="66"/>
-      <c r="J187" s="67"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="60"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="18"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="66"/>
-      <c r="F188" s="66"/>
-      <c r="G188" s="66"/>
-      <c r="H188" s="66"/>
-      <c r="I188" s="66"/>
-      <c r="J188" s="67"/>
+      <c r="A188" s="16"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="59"/>
+      <c r="F188" s="59"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="59"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="60"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="18"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="65"/>
-      <c r="E189" s="66"/>
-      <c r="F189" s="66"/>
-      <c r="G189" s="66"/>
-      <c r="H189" s="66"/>
-      <c r="I189" s="66"/>
-      <c r="J189" s="67"/>
+      <c r="A189" s="16"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="59"/>
+      <c r="F189" s="59"/>
+      <c r="G189" s="59"/>
+      <c r="H189" s="59"/>
+      <c r="I189" s="59"/>
+      <c r="J189" s="60"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="18"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="66"/>
-      <c r="F190" s="66"/>
-      <c r="G190" s="66"/>
-      <c r="H190" s="66"/>
-      <c r="I190" s="66"/>
-      <c r="J190" s="67"/>
+      <c r="A190" s="16"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="59"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="59"/>
+      <c r="I190" s="59"/>
+      <c r="J190" s="60"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="18"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="66"/>
-      <c r="F191" s="66"/>
-      <c r="G191" s="66"/>
-      <c r="H191" s="66"/>
-      <c r="I191" s="66"/>
-      <c r="J191" s="67"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="59"/>
+      <c r="F191" s="59"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="59"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="60"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="18"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="66"/>
-      <c r="F192" s="66"/>
-      <c r="G192" s="66"/>
-      <c r="H192" s="66"/>
-      <c r="I192" s="66"/>
-      <c r="J192" s="67"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="59"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="59"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="60"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="18"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="65"/>
-      <c r="E193" s="66"/>
-      <c r="F193" s="66"/>
-      <c r="G193" s="66"/>
-      <c r="H193" s="66"/>
-      <c r="I193" s="66"/>
-      <c r="J193" s="67"/>
+      <c r="A193" s="16"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="59"/>
+      <c r="F193" s="59"/>
+      <c r="G193" s="59"/>
+      <c r="H193" s="59"/>
+      <c r="I193" s="59"/>
+      <c r="J193" s="60"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="18"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="65"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="66"/>
-      <c r="G194" s="66"/>
-      <c r="H194" s="66"/>
-      <c r="I194" s="66"/>
-      <c r="J194" s="67"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="59"/>
+      <c r="F194" s="59"/>
+      <c r="G194" s="59"/>
+      <c r="H194" s="59"/>
+      <c r="I194" s="59"/>
+      <c r="J194" s="60"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="18"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="65"/>
-      <c r="E195" s="66"/>
-      <c r="F195" s="66"/>
-      <c r="G195" s="66"/>
-      <c r="H195" s="66"/>
-      <c r="I195" s="66"/>
-      <c r="J195" s="67"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="59"/>
+      <c r="F195" s="59"/>
+      <c r="G195" s="59"/>
+      <c r="H195" s="59"/>
+      <c r="I195" s="59"/>
+      <c r="J195" s="60"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="18"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="65"/>
-      <c r="E196" s="66"/>
-      <c r="F196" s="66"/>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
-      <c r="I196" s="66"/>
-      <c r="J196" s="67"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="59"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="59"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="60"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="18"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="65"/>
-      <c r="E197" s="66"/>
-      <c r="F197" s="66"/>
-      <c r="G197" s="66"/>
-      <c r="H197" s="66"/>
-      <c r="I197" s="66"/>
-      <c r="J197" s="67"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="59"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="60"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="18"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="65"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="66"/>
-      <c r="G198" s="66"/>
-      <c r="H198" s="66"/>
-      <c r="I198" s="66"/>
-      <c r="J198" s="67"/>
+      <c r="A198" s="16"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="59"/>
+      <c r="I198" s="59"/>
+      <c r="J198" s="60"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="18"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="65"/>
-      <c r="E199" s="66"/>
-      <c r="F199" s="66"/>
-      <c r="G199" s="66"/>
-      <c r="H199" s="66"/>
-      <c r="I199" s="66"/>
-      <c r="J199" s="67"/>
+      <c r="A199" s="16"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="59"/>
+      <c r="H199" s="59"/>
+      <c r="I199" s="59"/>
+      <c r="J199" s="60"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="18"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="65"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="66"/>
-      <c r="I200" s="66"/>
-      <c r="J200" s="67"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
+      <c r="H200" s="59"/>
+      <c r="I200" s="59"/>
+      <c r="J200" s="60"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="18"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="66"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="66"/>
-      <c r="H201" s="66"/>
-      <c r="I201" s="66"/>
-      <c r="J201" s="67"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="59"/>
+      <c r="F201" s="59"/>
+      <c r="G201" s="59"/>
+      <c r="H201" s="59"/>
+      <c r="I201" s="59"/>
+      <c r="J201" s="60"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="18"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="24"/>
-      <c r="D202" s="65"/>
-      <c r="E202" s="66"/>
-      <c r="F202" s="66"/>
-      <c r="G202" s="66"/>
-      <c r="H202" s="66"/>
-      <c r="I202" s="66"/>
-      <c r="J202" s="67"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="59"/>
+      <c r="I202" s="59"/>
+      <c r="J202" s="60"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="18"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="65"/>
-      <c r="E203" s="66"/>
-      <c r="F203" s="66"/>
-      <c r="G203" s="66"/>
-      <c r="H203" s="66"/>
-      <c r="I203" s="66"/>
-      <c r="J203" s="67"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="59"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="59"/>
+      <c r="H203" s="59"/>
+      <c r="I203" s="59"/>
+      <c r="J203" s="60"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="18"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="65"/>
-      <c r="E204" s="66"/>
-      <c r="F204" s="66"/>
-      <c r="G204" s="66"/>
-      <c r="H204" s="66"/>
-      <c r="I204" s="66"/>
-      <c r="J204" s="67"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="59"/>
+      <c r="F204" s="59"/>
+      <c r="G204" s="59"/>
+      <c r="H204" s="59"/>
+      <c r="I204" s="59"/>
+      <c r="J204" s="60"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="18"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="24"/>
-      <c r="D205" s="65"/>
-      <c r="E205" s="66"/>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="66"/>
-      <c r="I205" s="66"/>
-      <c r="J205" s="67"/>
+      <c r="A205" s="16"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="59"/>
+      <c r="F205" s="59"/>
+      <c r="G205" s="59"/>
+      <c r="H205" s="59"/>
+      <c r="I205" s="59"/>
+      <c r="J205" s="60"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="18"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="24"/>
-      <c r="D206" s="65"/>
-      <c r="E206" s="66"/>
-      <c r="F206" s="66"/>
-      <c r="G206" s="66"/>
-      <c r="H206" s="66"/>
-      <c r="I206" s="66"/>
-      <c r="J206" s="67"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="59"/>
+      <c r="F206" s="59"/>
+      <c r="G206" s="59"/>
+      <c r="H206" s="59"/>
+      <c r="I206" s="59"/>
+      <c r="J206" s="60"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="18"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="24"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
-      <c r="I207" s="66"/>
-      <c r="J207" s="67"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="59"/>
+      <c r="F207" s="59"/>
+      <c r="G207" s="59"/>
+      <c r="H207" s="59"/>
+      <c r="I207" s="59"/>
+      <c r="J207" s="60"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="18"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="65"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="66"/>
-      <c r="J208" s="67"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="59"/>
+      <c r="G208" s="59"/>
+      <c r="H208" s="59"/>
+      <c r="I208" s="59"/>
+      <c r="J208" s="60"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" s="18"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="24"/>
-      <c r="D209" s="65"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="66"/>
-      <c r="I209" s="66"/>
-      <c r="J209" s="67"/>
+      <c r="A209" s="16"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="59"/>
+      <c r="F209" s="59"/>
+      <c r="G209" s="59"/>
+      <c r="H209" s="59"/>
+      <c r="I209" s="59"/>
+      <c r="J209" s="60"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="18"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="65"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="66"/>
-      <c r="G210" s="66"/>
-      <c r="H210" s="66"/>
-      <c r="I210" s="66"/>
-      <c r="J210" s="67"/>
+      <c r="A210" s="16"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="59"/>
+      <c r="F210" s="59"/>
+      <c r="G210" s="59"/>
+      <c r="H210" s="59"/>
+      <c r="I210" s="59"/>
+      <c r="J210" s="60"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="18"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="24"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
-      <c r="J211" s="67"/>
+      <c r="A211" s="16"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="59"/>
+      <c r="F211" s="59"/>
+      <c r="G211" s="59"/>
+      <c r="H211" s="59"/>
+      <c r="I211" s="59"/>
+      <c r="J211" s="60"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="18"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="67"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="59"/>
+      <c r="F212" s="59"/>
+      <c r="G212" s="59"/>
+      <c r="H212" s="59"/>
+      <c r="I212" s="59"/>
+      <c r="J212" s="60"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="18"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="65"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="66"/>
-      <c r="I213" s="66"/>
-      <c r="J213" s="67"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="59"/>
+      <c r="F213" s="59"/>
+      <c r="G213" s="59"/>
+      <c r="H213" s="59"/>
+      <c r="I213" s="59"/>
+      <c r="J213" s="60"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="18"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="66"/>
-      <c r="H214" s="66"/>
-      <c r="I214" s="66"/>
-      <c r="J214" s="67"/>
+      <c r="A214" s="16"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="58"/>
+      <c r="E214" s="59"/>
+      <c r="F214" s="59"/>
+      <c r="G214" s="59"/>
+      <c r="H214" s="59"/>
+      <c r="I214" s="59"/>
+      <c r="J214" s="60"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="18"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="24"/>
-      <c r="D215" s="65"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="66"/>
-      <c r="I215" s="66"/>
-      <c r="J215" s="67"/>
+      <c r="A215" s="16"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="58"/>
+      <c r="E215" s="59"/>
+      <c r="F215" s="59"/>
+      <c r="G215" s="59"/>
+      <c r="H215" s="59"/>
+      <c r="I215" s="59"/>
+      <c r="J215" s="60"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="18"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="24"/>
-      <c r="D216" s="65"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="66"/>
-      <c r="G216" s="66"/>
-      <c r="H216" s="66"/>
-      <c r="I216" s="66"/>
-      <c r="J216" s="67"/>
+      <c r="A216" s="16"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="59"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="59"/>
+      <c r="H216" s="59"/>
+      <c r="I216" s="59"/>
+      <c r="J216" s="60"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" s="18"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="24"/>
-      <c r="D217" s="65"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="66"/>
-      <c r="G217" s="66"/>
-      <c r="H217" s="66"/>
-      <c r="I217" s="66"/>
-      <c r="J217" s="67"/>
+      <c r="A217" s="16"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="59"/>
+      <c r="F217" s="59"/>
+      <c r="G217" s="59"/>
+      <c r="H217" s="59"/>
+      <c r="I217" s="59"/>
+      <c r="J217" s="60"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="18"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="24"/>
-      <c r="D218" s="65"/>
-      <c r="E218" s="66"/>
-      <c r="F218" s="66"/>
-      <c r="G218" s="66"/>
-      <c r="H218" s="66"/>
-      <c r="I218" s="66"/>
-      <c r="J218" s="67"/>
+      <c r="A218" s="16"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="59"/>
+      <c r="F218" s="59"/>
+      <c r="G218" s="59"/>
+      <c r="H218" s="59"/>
+      <c r="I218" s="59"/>
+      <c r="J218" s="60"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="18"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="24"/>
-      <c r="D219" s="65"/>
-      <c r="E219" s="66"/>
-      <c r="F219" s="66"/>
-      <c r="G219" s="66"/>
-      <c r="H219" s="66"/>
-      <c r="I219" s="66"/>
-      <c r="J219" s="67"/>
+      <c r="A219" s="16"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="59"/>
+      <c r="J219" s="60"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="18"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="65"/>
-      <c r="E220" s="66"/>
-      <c r="F220" s="66"/>
-      <c r="G220" s="66"/>
-      <c r="H220" s="66"/>
-      <c r="I220" s="66"/>
-      <c r="J220" s="67"/>
+      <c r="A220" s="16"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="59"/>
+      <c r="F220" s="59"/>
+      <c r="G220" s="59"/>
+      <c r="H220" s="59"/>
+      <c r="I220" s="59"/>
+      <c r="J220" s="60"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="18"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="24"/>
-      <c r="D221" s="65"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="66"/>
-      <c r="G221" s="66"/>
-      <c r="H221" s="66"/>
-      <c r="I221" s="66"/>
-      <c r="J221" s="67"/>
+      <c r="A221" s="16"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="59"/>
+      <c r="F221" s="59"/>
+      <c r="G221" s="59"/>
+      <c r="H221" s="59"/>
+      <c r="I221" s="59"/>
+      <c r="J221" s="60"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" s="18"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="65"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="66"/>
-      <c r="G222" s="66"/>
-      <c r="H222" s="66"/>
-      <c r="I222" s="66"/>
-      <c r="J222" s="67"/>
+      <c r="A222" s="16"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="59"/>
+      <c r="F222" s="59"/>
+      <c r="G222" s="59"/>
+      <c r="H222" s="59"/>
+      <c r="I222" s="59"/>
+      <c r="J222" s="60"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A223" s="18"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="65"/>
-      <c r="E223" s="66"/>
-      <c r="F223" s="66"/>
-      <c r="G223" s="66"/>
-      <c r="H223" s="66"/>
-      <c r="I223" s="66"/>
-      <c r="J223" s="67"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="59"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="59"/>
+      <c r="H223" s="59"/>
+      <c r="I223" s="59"/>
+      <c r="J223" s="60"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A224" s="18"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="24"/>
-      <c r="D224" s="65"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="66"/>
-      <c r="I224" s="66"/>
-      <c r="J224" s="67"/>
+      <c r="A224" s="16"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="59"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="59"/>
+      <c r="H224" s="59"/>
+      <c r="I224" s="59"/>
+      <c r="J224" s="60"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="18"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="65"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="66"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="66"/>
-      <c r="I225" s="66"/>
-      <c r="J225" s="67"/>
+      <c r="A225" s="16"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="58"/>
+      <c r="E225" s="59"/>
+      <c r="F225" s="59"/>
+      <c r="G225" s="59"/>
+      <c r="H225" s="59"/>
+      <c r="I225" s="59"/>
+      <c r="J225" s="60"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="18"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="65"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="66"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="66"/>
-      <c r="I226" s="66"/>
-      <c r="J226" s="67"/>
+      <c r="A226" s="16"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
+      <c r="G226" s="59"/>
+      <c r="H226" s="59"/>
+      <c r="I226" s="59"/>
+      <c r="J226" s="60"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="18"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="24"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="66"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="66"/>
-      <c r="I227" s="66"/>
-      <c r="J227" s="67"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="59"/>
+      <c r="F227" s="59"/>
+      <c r="G227" s="59"/>
+      <c r="H227" s="59"/>
+      <c r="I227" s="59"/>
+      <c r="J227" s="60"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="18"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="65"/>
-      <c r="E228" s="66"/>
-      <c r="F228" s="66"/>
-      <c r="G228" s="66"/>
-      <c r="H228" s="66"/>
-      <c r="I228" s="66"/>
-      <c r="J228" s="67"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="59"/>
+      <c r="F228" s="59"/>
+      <c r="G228" s="59"/>
+      <c r="H228" s="59"/>
+      <c r="I228" s="59"/>
+      <c r="J228" s="60"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" s="18"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="65"/>
-      <c r="E229" s="66"/>
-      <c r="F229" s="66"/>
-      <c r="G229" s="66"/>
-      <c r="H229" s="66"/>
-      <c r="I229" s="66"/>
-      <c r="J229" s="67"/>
+      <c r="A229" s="16"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="59"/>
+      <c r="H229" s="59"/>
+      <c r="I229" s="59"/>
+      <c r="J229" s="60"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="18"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="65"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="66"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="66"/>
-      <c r="I230" s="66"/>
-      <c r="J230" s="67"/>
+      <c r="A230" s="16"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="59"/>
+      <c r="H230" s="59"/>
+      <c r="I230" s="59"/>
+      <c r="J230" s="60"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="18"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="24"/>
-      <c r="D231" s="65"/>
-      <c r="E231" s="66"/>
-      <c r="F231" s="66"/>
-      <c r="G231" s="66"/>
-      <c r="H231" s="66"/>
-      <c r="I231" s="66"/>
-      <c r="J231" s="67"/>
+      <c r="A231" s="16"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="59"/>
+      <c r="F231" s="59"/>
+      <c r="G231" s="59"/>
+      <c r="H231" s="59"/>
+      <c r="I231" s="59"/>
+      <c r="J231" s="60"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="18"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="24"/>
-      <c r="D232" s="65"/>
-      <c r="E232" s="66"/>
-      <c r="F232" s="66"/>
-      <c r="G232" s="66"/>
-      <c r="H232" s="66"/>
-      <c r="I232" s="66"/>
-      <c r="J232" s="67"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="59"/>
+      <c r="F232" s="59"/>
+      <c r="G232" s="59"/>
+      <c r="H232" s="59"/>
+      <c r="I232" s="59"/>
+      <c r="J232" s="60"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" s="18"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="24"/>
-      <c r="D233" s="65"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="66"/>
-      <c r="G233" s="66"/>
-      <c r="H233" s="66"/>
-      <c r="I233" s="66"/>
-      <c r="J233" s="67"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="59"/>
+      <c r="H233" s="59"/>
+      <c r="I233" s="59"/>
+      <c r="J233" s="60"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" s="18"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="65"/>
-      <c r="E234" s="66"/>
-      <c r="F234" s="66"/>
-      <c r="G234" s="66"/>
-      <c r="H234" s="66"/>
-      <c r="I234" s="66"/>
-      <c r="J234" s="67"/>
+      <c r="A234" s="16"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="59"/>
+      <c r="F234" s="59"/>
+      <c r="G234" s="59"/>
+      <c r="H234" s="59"/>
+      <c r="I234" s="59"/>
+      <c r="J234" s="60"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" s="18"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="24"/>
-      <c r="D235" s="65"/>
-      <c r="E235" s="66"/>
-      <c r="F235" s="66"/>
-      <c r="G235" s="66"/>
-      <c r="H235" s="66"/>
-      <c r="I235" s="66"/>
-      <c r="J235" s="67"/>
+      <c r="A235" s="16"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="59"/>
+      <c r="F235" s="59"/>
+      <c r="G235" s="59"/>
+      <c r="H235" s="59"/>
+      <c r="I235" s="59"/>
+      <c r="J235" s="60"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" s="18"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="65"/>
-      <c r="E236" s="66"/>
-      <c r="F236" s="66"/>
-      <c r="G236" s="66"/>
-      <c r="H236" s="66"/>
-      <c r="I236" s="66"/>
-      <c r="J236" s="67"/>
+      <c r="A236" s="16"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="59"/>
+      <c r="F236" s="59"/>
+      <c r="G236" s="59"/>
+      <c r="H236" s="59"/>
+      <c r="I236" s="59"/>
+      <c r="J236" s="60"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" s="18"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="65"/>
-      <c r="E237" s="66"/>
-      <c r="F237" s="66"/>
-      <c r="G237" s="66"/>
-      <c r="H237" s="66"/>
-      <c r="I237" s="66"/>
-      <c r="J237" s="67"/>
+      <c r="A237" s="16"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="58"/>
+      <c r="E237" s="59"/>
+      <c r="F237" s="59"/>
+      <c r="G237" s="59"/>
+      <c r="H237" s="59"/>
+      <c r="I237" s="59"/>
+      <c r="J237" s="60"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" s="18"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="65"/>
-      <c r="E238" s="66"/>
-      <c r="F238" s="66"/>
-      <c r="G238" s="66"/>
-      <c r="H238" s="66"/>
-      <c r="I238" s="66"/>
-      <c r="J238" s="67"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="59"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="59"/>
+      <c r="H238" s="59"/>
+      <c r="I238" s="59"/>
+      <c r="J238" s="60"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="18"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="65"/>
-      <c r="E239" s="66"/>
-      <c r="F239" s="66"/>
-      <c r="G239" s="66"/>
-      <c r="H239" s="66"/>
-      <c r="I239" s="66"/>
-      <c r="J239" s="67"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="59"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="59"/>
+      <c r="H239" s="59"/>
+      <c r="I239" s="59"/>
+      <c r="J239" s="60"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="18"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="66"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="66"/>
-      <c r="H240" s="66"/>
-      <c r="I240" s="66"/>
-      <c r="J240" s="67"/>
+      <c r="A240" s="16"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="58"/>
+      <c r="E240" s="59"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="59"/>
+      <c r="H240" s="59"/>
+      <c r="I240" s="59"/>
+      <c r="J240" s="60"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A241" s="18"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="24"/>
-      <c r="D241" s="65"/>
-      <c r="E241" s="66"/>
-      <c r="F241" s="66"/>
-      <c r="G241" s="66"/>
-      <c r="H241" s="66"/>
-      <c r="I241" s="66"/>
-      <c r="J241" s="67"/>
+      <c r="A241" s="16"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="58"/>
+      <c r="E241" s="59"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="59"/>
+      <c r="H241" s="59"/>
+      <c r="I241" s="59"/>
+      <c r="J241" s="60"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" s="18"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="65"/>
-      <c r="E242" s="66"/>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="66"/>
-      <c r="I242" s="66"/>
-      <c r="J242" s="67"/>
+      <c r="A242" s="16"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="59"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="59"/>
+      <c r="H242" s="59"/>
+      <c r="I242" s="59"/>
+      <c r="J242" s="60"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A243" s="18"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="65"/>
-      <c r="E243" s="66"/>
-      <c r="F243" s="66"/>
-      <c r="G243" s="66"/>
-      <c r="H243" s="66"/>
-      <c r="I243" s="66"/>
-      <c r="J243" s="67"/>
+      <c r="A243" s="16"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="59"/>
+      <c r="F243" s="59"/>
+      <c r="G243" s="59"/>
+      <c r="H243" s="59"/>
+      <c r="I243" s="59"/>
+      <c r="J243" s="60"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A244" s="18"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="24"/>
-      <c r="D244" s="65"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="66"/>
-      <c r="G244" s="66"/>
-      <c r="H244" s="66"/>
-      <c r="I244" s="66"/>
-      <c r="J244" s="67"/>
+      <c r="A244" s="16"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="59"/>
+      <c r="G244" s="59"/>
+      <c r="H244" s="59"/>
+      <c r="I244" s="59"/>
+      <c r="J244" s="60"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A245" s="18"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="24"/>
-      <c r="D245" s="65"/>
-      <c r="E245" s="66"/>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="66"/>
-      <c r="I245" s="66"/>
-      <c r="J245" s="67"/>
+      <c r="A245" s="16"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="58"/>
+      <c r="E245" s="59"/>
+      <c r="F245" s="59"/>
+      <c r="G245" s="59"/>
+      <c r="H245" s="59"/>
+      <c r="I245" s="59"/>
+      <c r="J245" s="60"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A246" s="18"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="24"/>
-      <c r="D246" s="65"/>
-      <c r="E246" s="66"/>
-      <c r="F246" s="66"/>
-      <c r="G246" s="66"/>
-      <c r="H246" s="66"/>
-      <c r="I246" s="66"/>
-      <c r="J246" s="67"/>
+      <c r="A246" s="16"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="59"/>
+      <c r="F246" s="59"/>
+      <c r="G246" s="59"/>
+      <c r="H246" s="59"/>
+      <c r="I246" s="59"/>
+      <c r="J246" s="60"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A247" s="18"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="24"/>
-      <c r="D247" s="65"/>
-      <c r="E247" s="66"/>
-      <c r="F247" s="66"/>
-      <c r="G247" s="66"/>
-      <c r="H247" s="66"/>
-      <c r="I247" s="66"/>
-      <c r="J247" s="67"/>
+      <c r="A247" s="16"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="58"/>
+      <c r="E247" s="59"/>
+      <c r="F247" s="59"/>
+      <c r="G247" s="59"/>
+      <c r="H247" s="59"/>
+      <c r="I247" s="59"/>
+      <c r="J247" s="60"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A248" s="18"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="24"/>
-      <c r="D248" s="65"/>
-      <c r="E248" s="66"/>
-      <c r="F248" s="66"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="66"/>
-      <c r="I248" s="66"/>
-      <c r="J248" s="67"/>
+      <c r="A248" s="16"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="59"/>
+      <c r="F248" s="59"/>
+      <c r="G248" s="59"/>
+      <c r="H248" s="59"/>
+      <c r="I248" s="59"/>
+      <c r="J248" s="60"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A249" s="18"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="65"/>
-      <c r="E249" s="66"/>
-      <c r="F249" s="66"/>
-      <c r="G249" s="66"/>
-      <c r="H249" s="66"/>
-      <c r="I249" s="66"/>
-      <c r="J249" s="67"/>
+      <c r="A249" s="16"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="58"/>
+      <c r="E249" s="59"/>
+      <c r="F249" s="59"/>
+      <c r="G249" s="59"/>
+      <c r="H249" s="59"/>
+      <c r="I249" s="59"/>
+      <c r="J249" s="60"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A250" s="18"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="65"/>
-      <c r="E250" s="66"/>
-      <c r="F250" s="66"/>
-      <c r="G250" s="66"/>
-      <c r="H250" s="66"/>
-      <c r="I250" s="66"/>
-      <c r="J250" s="67"/>
+      <c r="A250" s="16"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="59"/>
+      <c r="F250" s="59"/>
+      <c r="G250" s="59"/>
+      <c r="H250" s="59"/>
+      <c r="I250" s="59"/>
+      <c r="J250" s="60"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A251" s="18"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="24"/>
-      <c r="D251" s="65"/>
-      <c r="E251" s="66"/>
-      <c r="F251" s="66"/>
-      <c r="G251" s="66"/>
-      <c r="H251" s="66"/>
-      <c r="I251" s="66"/>
-      <c r="J251" s="67"/>
+      <c r="A251" s="16"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="59"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="59"/>
+      <c r="H251" s="59"/>
+      <c r="I251" s="59"/>
+      <c r="J251" s="60"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A252" s="18"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="24"/>
-      <c r="D252" s="65"/>
-      <c r="E252" s="66"/>
-      <c r="F252" s="66"/>
-      <c r="G252" s="66"/>
-      <c r="H252" s="66"/>
-      <c r="I252" s="66"/>
-      <c r="J252" s="67"/>
+      <c r="A252" s="16"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="59"/>
+      <c r="F252" s="59"/>
+      <c r="G252" s="59"/>
+      <c r="H252" s="59"/>
+      <c r="I252" s="59"/>
+      <c r="J252" s="60"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A253" s="18"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="24"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="66"/>
-      <c r="F253" s="66"/>
-      <c r="G253" s="66"/>
-      <c r="H253" s="66"/>
-      <c r="I253" s="66"/>
-      <c r="J253" s="67"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="59"/>
+      <c r="H253" s="59"/>
+      <c r="I253" s="59"/>
+      <c r="J253" s="60"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A254" s="18"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="24"/>
-      <c r="D254" s="65"/>
-      <c r="E254" s="66"/>
-      <c r="F254" s="66"/>
-      <c r="G254" s="66"/>
-      <c r="H254" s="66"/>
-      <c r="I254" s="66"/>
-      <c r="J254" s="67"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="59"/>
+      <c r="F254" s="59"/>
+      <c r="G254" s="59"/>
+      <c r="H254" s="59"/>
+      <c r="I254" s="59"/>
+      <c r="J254" s="60"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A255" s="18"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="24"/>
-      <c r="D255" s="65"/>
-      <c r="E255" s="66"/>
-      <c r="F255" s="66"/>
-      <c r="G255" s="66"/>
-      <c r="H255" s="66"/>
-      <c r="I255" s="66"/>
-      <c r="J255" s="67"/>
+      <c r="A255" s="16"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="59"/>
+      <c r="F255" s="59"/>
+      <c r="G255" s="59"/>
+      <c r="H255" s="59"/>
+      <c r="I255" s="59"/>
+      <c r="J255" s="60"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A256" s="18"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="24"/>
-      <c r="D256" s="65"/>
-      <c r="E256" s="66"/>
-      <c r="F256" s="66"/>
-      <c r="G256" s="66"/>
-      <c r="H256" s="66"/>
-      <c r="I256" s="66"/>
-      <c r="J256" s="67"/>
+      <c r="A256" s="16"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="58"/>
+      <c r="E256" s="59"/>
+      <c r="F256" s="59"/>
+      <c r="G256" s="59"/>
+      <c r="H256" s="59"/>
+      <c r="I256" s="59"/>
+      <c r="J256" s="60"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A257" s="18"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="24"/>
-      <c r="D257" s="65"/>
-      <c r="E257" s="66"/>
-      <c r="F257" s="66"/>
-      <c r="G257" s="66"/>
-      <c r="H257" s="66"/>
-      <c r="I257" s="66"/>
-      <c r="J257" s="67"/>
+      <c r="A257" s="16"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="58"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="59"/>
+      <c r="J257" s="60"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A258" s="18"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="24"/>
-      <c r="D258" s="65"/>
-      <c r="E258" s="66"/>
-      <c r="F258" s="66"/>
-      <c r="G258" s="66"/>
-      <c r="H258" s="66"/>
-      <c r="I258" s="66"/>
-      <c r="J258" s="67"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="59"/>
+      <c r="J258" s="60"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A259" s="18"/>
-      <c r="B259" s="12"/>
-      <c r="C259" s="24"/>
-      <c r="D259" s="65"/>
-      <c r="E259" s="66"/>
-      <c r="F259" s="66"/>
-      <c r="G259" s="66"/>
-      <c r="H259" s="66"/>
-      <c r="I259" s="66"/>
-      <c r="J259" s="67"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="58"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="60"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A260" s="18"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="24"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="66"/>
-      <c r="F260" s="66"/>
-      <c r="G260" s="66"/>
-      <c r="H260" s="66"/>
-      <c r="I260" s="66"/>
-      <c r="J260" s="67"/>
+      <c r="A260" s="16"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="58"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
+      <c r="G260" s="59"/>
+      <c r="H260" s="59"/>
+      <c r="I260" s="59"/>
+      <c r="J260" s="60"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A261" s="18"/>
-      <c r="B261" s="12"/>
-      <c r="C261" s="24"/>
-      <c r="D261" s="65"/>
-      <c r="E261" s="66"/>
-      <c r="F261" s="66"/>
-      <c r="G261" s="66"/>
-      <c r="H261" s="66"/>
-      <c r="I261" s="66"/>
-      <c r="J261" s="67"/>
+      <c r="A261" s="16"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="59"/>
+      <c r="F261" s="59"/>
+      <c r="G261" s="59"/>
+      <c r="H261" s="59"/>
+      <c r="I261" s="59"/>
+      <c r="J261" s="60"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A262" s="18"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="65"/>
-      <c r="E262" s="66"/>
-      <c r="F262" s="66"/>
-      <c r="G262" s="66"/>
-      <c r="H262" s="66"/>
-      <c r="I262" s="66"/>
-      <c r="J262" s="67"/>
+      <c r="A262" s="16"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="58"/>
+      <c r="E262" s="59"/>
+      <c r="F262" s="59"/>
+      <c r="G262" s="59"/>
+      <c r="H262" s="59"/>
+      <c r="I262" s="59"/>
+      <c r="J262" s="60"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="18"/>
-      <c r="B263" s="12"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="65"/>
-      <c r="E263" s="66"/>
-      <c r="F263" s="66"/>
-      <c r="G263" s="66"/>
-      <c r="H263" s="66"/>
-      <c r="I263" s="66"/>
-      <c r="J263" s="67"/>
+      <c r="A263" s="16"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="58"/>
+      <c r="E263" s="59"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="59"/>
+      <c r="H263" s="59"/>
+      <c r="I263" s="59"/>
+      <c r="J263" s="60"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="18"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="24"/>
-      <c r="D264" s="65"/>
-      <c r="E264" s="66"/>
-      <c r="F264" s="66"/>
-      <c r="G264" s="66"/>
-      <c r="H264" s="66"/>
-      <c r="I264" s="66"/>
-      <c r="J264" s="67"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="59"/>
+      <c r="F264" s="59"/>
+      <c r="G264" s="59"/>
+      <c r="H264" s="59"/>
+      <c r="I264" s="59"/>
+      <c r="J264" s="60"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A265" s="18"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="24"/>
-      <c r="D265" s="65"/>
-      <c r="E265" s="66"/>
-      <c r="F265" s="66"/>
-      <c r="G265" s="66"/>
-      <c r="H265" s="66"/>
-      <c r="I265" s="66"/>
-      <c r="J265" s="67"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="58"/>
+      <c r="E265" s="59"/>
+      <c r="F265" s="59"/>
+      <c r="G265" s="59"/>
+      <c r="H265" s="59"/>
+      <c r="I265" s="59"/>
+      <c r="J265" s="60"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="18"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="24"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="66"/>
-      <c r="F266" s="66"/>
-      <c r="G266" s="66"/>
-      <c r="H266" s="66"/>
-      <c r="I266" s="66"/>
-      <c r="J266" s="67"/>
+      <c r="A266" s="16"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="58"/>
+      <c r="E266" s="59"/>
+      <c r="F266" s="59"/>
+      <c r="G266" s="59"/>
+      <c r="H266" s="59"/>
+      <c r="I266" s="59"/>
+      <c r="J266" s="60"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A267" s="18"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="24"/>
-      <c r="D267" s="65"/>
-      <c r="E267" s="66"/>
-      <c r="F267" s="66"/>
-      <c r="G267" s="66"/>
-      <c r="H267" s="66"/>
-      <c r="I267" s="66"/>
-      <c r="J267" s="67"/>
+      <c r="A267" s="16"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="58"/>
+      <c r="E267" s="59"/>
+      <c r="F267" s="59"/>
+      <c r="G267" s="59"/>
+      <c r="H267" s="59"/>
+      <c r="I267" s="59"/>
+      <c r="J267" s="60"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A268" s="18"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="24"/>
-      <c r="D268" s="65"/>
-      <c r="E268" s="66"/>
-      <c r="F268" s="66"/>
-      <c r="G268" s="66"/>
-      <c r="H268" s="66"/>
-      <c r="I268" s="66"/>
-      <c r="J268" s="67"/>
+      <c r="A268" s="16"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="58"/>
+      <c r="E268" s="59"/>
+      <c r="F268" s="59"/>
+      <c r="G268" s="59"/>
+      <c r="H268" s="59"/>
+      <c r="I268" s="59"/>
+      <c r="J268" s="60"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A269" s="18"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="65"/>
-      <c r="E269" s="66"/>
-      <c r="F269" s="66"/>
-      <c r="G269" s="66"/>
-      <c r="H269" s="66"/>
-      <c r="I269" s="66"/>
-      <c r="J269" s="67"/>
+      <c r="A269" s="16"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="59"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="59"/>
+      <c r="H269" s="59"/>
+      <c r="I269" s="59"/>
+      <c r="J269" s="60"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A270" s="18"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="24"/>
-      <c r="D270" s="65"/>
-      <c r="E270" s="66"/>
-      <c r="F270" s="66"/>
-      <c r="G270" s="66"/>
-      <c r="H270" s="66"/>
-      <c r="I270" s="66"/>
-      <c r="J270" s="67"/>
-    </row>
-    <row r="271" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="19"/>
-      <c r="B271" s="13"/>
-      <c r="C271" s="25"/>
-      <c r="D271" s="74"/>
-      <c r="E271" s="75"/>
-      <c r="F271" s="75"/>
-      <c r="G271" s="75"/>
-      <c r="H271" s="75"/>
-      <c r="I271" s="75"/>
-      <c r="J271" s="76"/>
-    </row>
-    <row r="272" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A270" s="16"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="59"/>
+      <c r="F270" s="59"/>
+      <c r="G270" s="59"/>
+      <c r="H270" s="59"/>
+      <c r="I270" s="59"/>
+      <c r="J270" s="60"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="16"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="58"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="59"/>
+      <c r="H271" s="59"/>
+      <c r="I271" s="59"/>
+      <c r="J271" s="60"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="16"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="59"/>
+      <c r="F272" s="59"/>
+      <c r="G272" s="59"/>
+      <c r="H272" s="59"/>
+      <c r="I272" s="59"/>
+      <c r="J272" s="60"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="16"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="58"/>
+      <c r="E273" s="59"/>
+      <c r="F273" s="59"/>
+      <c r="G273" s="59"/>
+      <c r="H273" s="59"/>
+      <c r="I273" s="59"/>
+      <c r="J273" s="60"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="16"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="59"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="59"/>
+      <c r="H274" s="59"/>
+      <c r="I274" s="59"/>
+      <c r="J274" s="60"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="16"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="58"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="59"/>
+      <c r="I275" s="59"/>
+      <c r="J275" s="60"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="16"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="58"/>
+      <c r="E276" s="59"/>
+      <c r="F276" s="59"/>
+      <c r="G276" s="59"/>
+      <c r="H276" s="59"/>
+      <c r="I276" s="59"/>
+      <c r="J276" s="60"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="16"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="59"/>
+      <c r="H277" s="59"/>
+      <c r="I277" s="59"/>
+      <c r="J277" s="60"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="16"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="58"/>
+      <c r="E278" s="59"/>
+      <c r="F278" s="59"/>
+      <c r="G278" s="59"/>
+      <c r="H278" s="59"/>
+      <c r="I278" s="59"/>
+      <c r="J278" s="60"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="16"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="58"/>
+      <c r="E279" s="59"/>
+      <c r="F279" s="59"/>
+      <c r="G279" s="59"/>
+      <c r="H279" s="59"/>
+      <c r="I279" s="59"/>
+      <c r="J279" s="60"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="16"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="58"/>
+      <c r="E280" s="59"/>
+      <c r="F280" s="59"/>
+      <c r="G280" s="59"/>
+      <c r="H280" s="59"/>
+      <c r="I280" s="59"/>
+      <c r="J280" s="60"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="16"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="59"/>
+      <c r="F281" s="59"/>
+      <c r="G281" s="59"/>
+      <c r="H281" s="59"/>
+      <c r="I281" s="59"/>
+      <c r="J281" s="60"/>
+    </row>
+    <row r="282" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="17"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="64"/>
+      <c r="E282" s="65"/>
+      <c r="F282" s="65"/>
+      <c r="G282" s="65"/>
+      <c r="H282" s="65"/>
+      <c r="I282" s="65"/>
+      <c r="J282" s="66"/>
+    </row>
+    <row r="283" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4916,7 +5616,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -4925,7 +5625,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4967,7 +5667,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4983,7 +5683,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5001,7 +5701,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -5015,7 +5715,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -5029,7 +5729,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5043,7 +5743,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -5057,7 +5757,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -5071,7 +5771,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5089,7 +5789,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
@@ -5103,7 +5803,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -5117,7 +5817,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -5131,7 +5831,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -5145,7 +5845,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -5159,7 +5859,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -5177,7 +5877,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -5191,7 +5891,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -5205,7 +5905,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -5219,7 +5919,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -5233,7 +5933,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -5247,7 +5947,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -5261,7 +5961,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -5279,7 +5979,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -5293,7 +5993,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -5307,7 +6007,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -5321,7 +6021,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -5335,7 +6035,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -5349,7 +6049,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -5367,7 +6067,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -5381,7 +6081,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -5395,7 +6095,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -5409,7 +6109,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -5423,7 +6123,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -5437,7 +6137,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -5451,7 +6151,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -5465,7 +6165,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -5479,7 +6179,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -5495,7 +6195,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5507,7 +6207,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5519,7 +6219,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5531,7 +6231,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5543,7 +6243,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5555,7 +6255,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -5571,7 +6271,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5583,7 +6283,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5595,7 +6295,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5607,7 +6307,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5619,7 +6319,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5631,7 +6331,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5643,7 +6343,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5655,7 +6355,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5667,7 +6367,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5679,7 +6379,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5691,7 +6391,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5703,7 +6403,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5715,7 +6415,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5727,7 +6427,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5739,7 +6439,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5751,7 +6451,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5763,7 +6463,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5775,7 +6475,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5787,7 +6487,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5799,7 +6499,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5811,7 +6511,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5823,7 +6523,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5835,7 +6535,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5847,7 +6547,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5859,7 +6559,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5871,7 +6571,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5883,7 +6583,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5895,7 +6595,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5907,7 +6607,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5919,7 +6619,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5931,7 +6631,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5943,7 +6643,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5955,7 +6655,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5967,7 +6667,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5979,7 +6679,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5991,7 +6691,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6003,7 +6703,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6015,7 +6715,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6027,7 +6727,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6039,7 +6739,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6051,7 +6751,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6063,7 +6763,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6075,7 +6775,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6087,7 +6787,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6099,7 +6799,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6111,7 +6811,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6123,7 +6823,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6135,7 +6835,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6147,7 +6847,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6159,7 +6859,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6171,7 +6871,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6183,7 +6883,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6195,7 +6895,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6207,7 +6907,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6219,7 +6919,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6231,7 +6931,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6243,7 +6943,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6255,7 +6955,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6267,7 +6967,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6279,7 +6979,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6291,7 +6991,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6303,7 +7003,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6315,7 +7015,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6327,7 +7027,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6339,7 +7039,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6351,7 +7051,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6363,7 +7063,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6375,7 +7075,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6387,7 +7087,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6399,7 +7099,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6411,7 +7111,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6423,7 +7123,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6435,7 +7135,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6447,7 +7147,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6459,7 +7159,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6471,7 +7171,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6483,7 +7183,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6495,7 +7195,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6507,7 +7207,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6519,7 +7219,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6531,7 +7231,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6543,7 +7243,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6555,7 +7255,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6567,7 +7267,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6579,7 +7279,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6591,7 +7291,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6603,7 +7303,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6615,7 +7315,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6627,7 +7327,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6639,7 +7339,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6651,7 +7351,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6663,7 +7363,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6675,7 +7375,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6687,7 +7387,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6699,7 +7399,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6711,7 +7411,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6723,7 +7423,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6735,7 +7435,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6747,7 +7447,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6759,7 +7459,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6771,7 +7471,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6783,7 +7483,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6795,7 +7495,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6807,7 +7507,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6819,7 +7519,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6831,7 +7531,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6843,7 +7543,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6855,7 +7555,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6867,7 +7567,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6879,7 +7579,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6891,7 +7591,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6903,7 +7603,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6915,7 +7615,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6927,7 +7627,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6939,7 +7639,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6951,7 +7651,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6963,7 +7663,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6975,7 +7675,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6987,7 +7687,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6999,7 +7699,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7011,7 +7711,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7023,7 +7723,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7035,7 +7735,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7047,7 +7747,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7059,7 +7759,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7071,7 +7771,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7083,7 +7783,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7095,7 +7795,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7107,7 +7807,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7119,7 +7819,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7131,7 +7831,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7143,7 +7843,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7155,7 +7855,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7167,7 +7867,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7179,7 +7879,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7191,7 +7891,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7203,7 +7903,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7215,7 +7915,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7227,7 +7927,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7239,7 +7939,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7251,7 +7951,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7263,7 +7963,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7275,7 +7975,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7287,7 +7987,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7299,7 +7999,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7311,7 +8011,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7323,7 +8023,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7335,7 +8035,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7347,7 +8047,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7359,7 +8059,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7371,7 +8071,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7383,7 +8083,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7395,7 +8095,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7407,7 +8107,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7419,7 +8119,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7431,7 +8131,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7443,7 +8143,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7455,7 +8155,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7467,7 +8167,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7479,7 +8179,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7491,7 +8191,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7503,7 +8203,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7515,7 +8215,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7527,7 +8227,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7539,7 +8239,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7551,7 +8251,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7563,7 +8263,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7575,7 +8275,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7587,7 +8287,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7599,7 +8299,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7611,7 +8311,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7623,7 +8323,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7635,7 +8335,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7647,7 +8347,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7659,7 +8359,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7671,7 +8371,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7683,7 +8383,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7695,7 +8395,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7707,7 +8407,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7719,7 +8419,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7731,7 +8431,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7743,7 +8443,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7755,7 +8455,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7767,7 +8467,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7779,7 +8479,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7791,7 +8491,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7803,7 +8503,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7815,7 +8515,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7827,7 +8527,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7839,7 +8539,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7851,7 +8551,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7863,7 +8563,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7875,7 +8575,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7887,7 +8587,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7899,7 +8599,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7911,7 +8611,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7923,7 +8623,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7935,7 +8635,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7947,7 +8647,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7959,7 +8659,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7971,7 +8671,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7983,7 +8683,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7995,7 +8695,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8007,7 +8707,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8019,7 +8719,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8031,7 +8731,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8043,7 +8743,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8055,7 +8755,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8067,7 +8767,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8079,7 +8779,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8091,7 +8791,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8103,7 +8803,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8115,7 +8815,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8127,7 +8827,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8139,7 +8839,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8151,7 +8851,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8163,7 +8863,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8175,7 +8875,7 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8187,7 +8887,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8199,7 +8899,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8211,7 +8911,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8223,7 +8923,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>

--- a/План/Sources.xlsx
+++ b/План/Sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>№</t>
   </si>
@@ -233,6 +233,9 @@
     <t>Строки</t>
   </si>
   <si>
+    <t>Рег выр</t>
+  </si>
+  <si>
     <t>Числа</t>
   </si>
   <si>
@@ -285,66 +288,6 @@
   </si>
   <si>
     <t>Литералы</t>
-  </si>
-  <si>
-    <t>Константы</t>
-  </si>
-  <si>
-    <t>Обозначения</t>
-  </si>
-  <si>
-    <t>Прочие</t>
-  </si>
-  <si>
-    <t>Не операторы</t>
-  </si>
-  <si>
-    <t>Класс</t>
-  </si>
-  <si>
-    <t>Область видимости</t>
-  </si>
-  <si>
-    <t>Аргументы методов</t>
-  </si>
-  <si>
-    <t>Proc и lambda</t>
-  </si>
-  <si>
-    <t>Замкнутые выражения</t>
-  </si>
-  <si>
-    <t>Методы доступа</t>
-  </si>
-  <si>
-    <t>Типы</t>
-  </si>
-  <si>
-    <t>Регул выр</t>
-  </si>
-  <si>
-    <t>Числовые методы</t>
-  </si>
-  <si>
-    <t>Десятичные числа</t>
-  </si>
-  <si>
-    <t>Комплексные числа</t>
-  </si>
-  <si>
-    <t>Рациональные числа</t>
-  </si>
-  <si>
-    <t>Векторы и матрицы</t>
-  </si>
-  <si>
-    <t>Случайные числа</t>
-  </si>
-  <si>
-    <t>Литералы регул выр</t>
-  </si>
-  <si>
-    <t>Методы</t>
   </si>
 </sst>
 </file>
@@ -395,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,86 +363,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF33"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0099FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6666FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9966FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC66FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1085,85 +950,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,22 +966,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1236,6 +1034,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1245,258 +1046,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1505,16 +1054,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFCC66FF"/>
-      <color rgb="FF9966FF"/>
-      <color rgb="FF6666FF"/>
-      <color rgb="FF0099FF"/>
-      <color rgb="FF0066CC"/>
-      <color rgb="FF0066FF"/>
-      <color rgb="FF00CCFF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF00FFCC"/>
-      <color rgb="FF00FF99"/>
+      <color rgb="FF990033"/>
+      <color rgb="FFCC0066"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1791,3817 +1335,3573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J283"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="20.7109375" style="67" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="20.7109375" style="77" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="71" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:10" s="81" customFormat="1" ht="47.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="50">
+        <v>45</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53">
+        <v>46</v>
+      </c>
+      <c r="E5" s="54">
+        <v>47</v>
+      </c>
+      <c r="F5" s="54">
+        <v>10</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="53">
+        <v>48</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="53">
+        <v>49</v>
+      </c>
+      <c r="E7" s="54">
+        <v>46</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="53">
+        <v>51</v>
+      </c>
+      <c r="E8" s="54">
+        <v>46</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="53">
+        <v>52</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57">
+        <v>11</v>
+      </c>
+      <c r="G10" s="57">
+        <v>19</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="62">
+        <v>69</v>
+      </c>
+      <c r="E13" s="63">
+        <v>90</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63">
+        <v>36</v>
+      </c>
+      <c r="I13" s="63">
+        <v>47</v>
+      </c>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="62">
+        <v>99</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="65">
+        <v>90</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66">
+        <v>35</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66">
+        <v>47</v>
+      </c>
+      <c r="I15" s="66">
+        <v>61</v>
+      </c>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="65">
+        <v>93</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66">
+        <v>37</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="68">
+        <v>95</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="71">
+        <v>115</v>
+      </c>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72">
+        <v>16</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="65">
+        <v>123</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="65">
+        <v>133</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="65">
+        <v>136</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="65">
+        <v>136</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="65">
+        <v>138</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="68">
+        <v>140</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="71">
+        <v>152</v>
+      </c>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72">
+        <v>18</v>
+      </c>
+      <c r="G25" s="72">
+        <v>134</v>
+      </c>
+      <c r="H25" s="72">
+        <v>56</v>
+      </c>
+      <c r="I25" s="72">
+        <v>73</v>
+      </c>
+      <c r="J25" s="73">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="65">
+        <v>163</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66">
+        <v>18</v>
+      </c>
+      <c r="G26" s="66">
+        <v>91</v>
+      </c>
+      <c r="H26" s="66">
+        <v>60</v>
+      </c>
+      <c r="I26" s="66">
         <v>79</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="43">
-        <v>45</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="46">
-        <v>46</v>
-      </c>
-      <c r="E5" s="47">
-        <v>47</v>
-      </c>
-      <c r="F5" s="47">
+      <c r="J26" s="67">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="65">
+        <v>184</v>
+      </c>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66">
+        <v>59</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="65">
+        <v>178</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66">
+        <v>18</v>
+      </c>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="65">
+        <v>166</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66">
+        <v>63</v>
+      </c>
+      <c r="G29" s="66">
+        <v>94</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="68">
+        <v>192</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69">
+        <v>21</v>
+      </c>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>6</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="67"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>8</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="67"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="67"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="67"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="67"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="67"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="67"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="65"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="67"/>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="68"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="70"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>9</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="73"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="70"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
         <v>10</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="46">
-        <v>48</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="46">
-        <v>49</v>
-      </c>
-      <c r="E7" s="47">
-        <v>46</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="46">
-        <v>51</v>
-      </c>
-      <c r="E8" s="47">
-        <v>46</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="49">
-        <v>52</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="73">
-        <v>3</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="52">
-        <v>63</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="75" t="s">
+      <c r="B59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="73"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="67"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="70"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="52">
-        <v>64</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="76" t="s">
+      <c r="B63" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="73"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="67"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="67"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="67"/>
+    </row>
+    <row r="67" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="70"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="B68" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="73"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="67"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="67"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="67"/>
+    </row>
+    <row r="72" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="70"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>13</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="67"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="67"/>
+    </row>
+    <row r="76" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="70"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>14</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="56">
-        <v>90</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56">
-        <v>36</v>
-      </c>
-      <c r="I12" s="56">
-        <v>47</v>
-      </c>
-      <c r="J12" s="57"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="55">
-        <v>99</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="58">
-        <v>90</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59">
-        <v>35</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59">
-        <v>47</v>
-      </c>
-      <c r="I14" s="59">
-        <v>61</v>
-      </c>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="19" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="73"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="67"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="18"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="67"/>
+    </row>
+    <row r="80" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="70"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
         <v>15</v>
       </c>
-      <c r="D15" s="58">
-        <v>93</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59">
-        <v>37</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80" t="s">
+      <c r="B81" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="73"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="67"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="18"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="67"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="18"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+    </row>
+    <row r="85" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="70"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
         <v>16</v>
       </c>
-      <c r="D16" s="81">
-        <v>95</v>
-      </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="81">
-        <v>98</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="84">
-        <v>4</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="87">
-        <v>115</v>
-      </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88">
-        <v>16</v>
-      </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="87">
-        <v>116</v>
-      </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="87">
-        <v>117</v>
-      </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="87">
-        <v>118</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="93">
-        <v>123</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="95"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="93">
-        <v>133</v>
-      </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="93">
-        <v>136</v>
-      </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="93">
-        <v>136</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="93">
-        <v>138</v>
-      </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="99">
-        <v>140</v>
-      </c>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="99">
-        <v>143</v>
-      </c>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="102"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="105">
-        <v>149</v>
-      </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="108">
-        <v>5</v>
-      </c>
-      <c r="B31" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="111">
-        <v>152</v>
-      </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112">
-        <v>18</v>
-      </c>
-      <c r="G31" s="112">
-        <v>134</v>
-      </c>
-      <c r="H31" s="112">
-        <v>56</v>
-      </c>
-      <c r="I31" s="112">
-        <v>73</v>
-      </c>
-      <c r="J31" s="113">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="117">
-        <v>163</v>
-      </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118">
-        <v>18</v>
-      </c>
-      <c r="G32" s="118">
-        <v>91</v>
-      </c>
-      <c r="H32" s="118">
-        <v>60</v>
-      </c>
-      <c r="I32" s="118">
-        <v>79</v>
-      </c>
-      <c r="J32" s="119">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="117">
-        <v>166</v>
-      </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118">
-        <v>63</v>
-      </c>
-      <c r="G33" s="118">
-        <v>94</v>
-      </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="119">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="117">
-        <v>178</v>
-      </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118">
-        <v>18</v>
-      </c>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="117">
-        <v>184</v>
-      </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118">
-        <v>59</v>
-      </c>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="119"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="120"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="123">
-        <v>194</v>
-      </c>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124">
-        <v>21</v>
-      </c>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="126">
-        <v>6</v>
-      </c>
-      <c r="B37" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="129">
-        <v>261</v>
-      </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="131"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="129">
-        <v>262</v>
-      </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="131"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="132"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="135">
-        <v>280</v>
-      </c>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="137"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="135">
-        <v>266</v>
-      </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="137"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="132"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="135">
-        <v>278</v>
-      </c>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="137"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="135">
-        <v>228</v>
-      </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="137"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="135">
-        <v>283</v>
-      </c>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="135">
-        <v>100</v>
-      </c>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="137"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="135">
-        <v>294</v>
-      </c>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="135">
-        <v>286</v>
-      </c>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-    </row>
-    <row r="47" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="138"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="140">
-        <v>301</v>
-      </c>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="142"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="300">
-        <v>7</v>
-      </c>
-      <c r="B48" s="301" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="302" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="144">
-        <v>237</v>
-      </c>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="146"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="147"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="150">
-        <v>246</v>
-      </c>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="147"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="150">
-        <v>252</v>
-      </c>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="152"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="147"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="147"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="152"/>
-    </row>
-    <row r="53" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="303">
-        <v>8</v>
-      </c>
-      <c r="B54" s="304" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="305" t="s">
+      <c r="B86" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="159">
-        <v>393</v>
-      </c>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="161"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="162"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="306" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="165">
-        <v>401</v>
-      </c>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="167"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="162"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="306" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="165">
-        <v>408</v>
-      </c>
-      <c r="E56" s="166"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="162"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="165">
-        <v>414</v>
-      </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="167"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="162"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="306" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="165"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="166"/>
-      <c r="J58" s="167"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="162"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="165"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="167"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="162"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="164" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="165"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="167"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="162"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="164" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="165"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
-      <c r="G61" s="166"/>
-      <c r="H61" s="166"/>
-      <c r="I61" s="166"/>
-      <c r="J61" s="167"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="168"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="170" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="171"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="173"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="307">
-        <v>9</v>
-      </c>
-      <c r="B63" s="308" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="309" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="174">
-        <v>364</v>
-      </c>
-      <c r="E63" s="175"/>
-      <c r="F63" s="175"/>
-      <c r="G63" s="175"/>
-      <c r="H63" s="175"/>
-      <c r="I63" s="175"/>
-      <c r="J63" s="176"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="177"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="181"/>
-      <c r="F65" s="181"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="182"/>
-    </row>
-    <row r="66" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="183"/>
-      <c r="B66" s="184"/>
-      <c r="C66" s="185"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="187"/>
-      <c r="G66" s="187"/>
-      <c r="H66" s="187"/>
-      <c r="I66" s="187"/>
-      <c r="J66" s="188"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="310">
-        <v>10</v>
-      </c>
-      <c r="B67" s="311" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="312" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="189">
-        <v>371</v>
-      </c>
-      <c r="E67" s="190"/>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="190"/>
-      <c r="J67" s="191"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="192"/>
-      <c r="B68" s="193"/>
-      <c r="C68" s="318" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="194">
-        <v>371</v>
-      </c>
-      <c r="E68" s="195"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
-      <c r="J68" s="196"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="192"/>
-      <c r="B69" s="193"/>
-      <c r="C69" s="318" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="194">
-        <v>373</v>
-      </c>
-      <c r="E69" s="195"/>
-      <c r="F69" s="195"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="195"/>
-      <c r="I69" s="195"/>
-      <c r="J69" s="196"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="319"/>
-      <c r="B70" s="320"/>
-      <c r="C70" s="321"/>
-      <c r="D70" s="322"/>
-      <c r="E70" s="323"/>
-      <c r="F70" s="323"/>
-      <c r="G70" s="323"/>
-      <c r="H70" s="323"/>
-      <c r="I70" s="323"/>
-      <c r="J70" s="324"/>
-    </row>
-    <row r="71" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="197"/>
-      <c r="B71" s="198"/>
-      <c r="C71" s="199"/>
-      <c r="D71" s="200"/>
-      <c r="E71" s="201"/>
-      <c r="F71" s="201"/>
-      <c r="G71" s="201"/>
-      <c r="H71" s="201"/>
-      <c r="I71" s="201"/>
-      <c r="J71" s="202"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="313">
-        <v>11</v>
-      </c>
-      <c r="B72" s="314" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="315" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="203">
-        <v>385</v>
-      </c>
-      <c r="E72" s="204"/>
-      <c r="F72" s="204"/>
-      <c r="G72" s="204"/>
-      <c r="H72" s="204"/>
-      <c r="I72" s="204"/>
-      <c r="J72" s="205"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="206"/>
-      <c r="B73" s="207"/>
-      <c r="C73" s="316" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="208">
-        <v>385</v>
-      </c>
-      <c r="E73" s="209"/>
-      <c r="F73" s="209"/>
-      <c r="G73" s="209"/>
-      <c r="H73" s="209"/>
-      <c r="I73" s="209"/>
-      <c r="J73" s="210"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="206"/>
-      <c r="B74" s="207"/>
-      <c r="C74" s="316" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="208">
-        <v>387</v>
-      </c>
-      <c r="E74" s="209"/>
-      <c r="F74" s="209"/>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
-      <c r="I74" s="209"/>
-      <c r="J74" s="210"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="206"/>
-      <c r="B75" s="207"/>
-      <c r="C75" s="316" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="208">
-        <v>388</v>
-      </c>
-      <c r="E75" s="209"/>
-      <c r="F75" s="209"/>
-      <c r="G75" s="209"/>
-      <c r="H75" s="209"/>
-      <c r="I75" s="209"/>
-      <c r="J75" s="210"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="206"/>
-      <c r="B76" s="207"/>
-      <c r="C76" s="316" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="208">
-        <v>389</v>
-      </c>
-      <c r="E76" s="209"/>
-      <c r="F76" s="209"/>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
-      <c r="J76" s="210"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="206"/>
-      <c r="B77" s="207"/>
-      <c r="C77" s="316" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="208">
-        <v>390</v>
-      </c>
-      <c r="E77" s="209"/>
-      <c r="F77" s="209"/>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
-      <c r="I77" s="209"/>
-      <c r="J77" s="210"/>
-    </row>
-    <row r="78" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="211"/>
-      <c r="B78" s="212"/>
-      <c r="C78" s="317" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="213">
-        <v>390</v>
-      </c>
-      <c r="E78" s="214"/>
-      <c r="F78" s="214"/>
-      <c r="G78" s="214"/>
-      <c r="H78" s="214"/>
-      <c r="I78" s="214"/>
-      <c r="J78" s="215"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="216">
-        <v>12</v>
-      </c>
-      <c r="B79" s="217" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="218"/>
-      <c r="D79" s="219"/>
-      <c r="E79" s="220"/>
-      <c r="F79" s="220"/>
-      <c r="G79" s="220"/>
-      <c r="H79" s="220"/>
-      <c r="I79" s="220"/>
-      <c r="J79" s="221"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="222"/>
-      <c r="B80" s="223"/>
-      <c r="C80" s="224"/>
-      <c r="D80" s="225"/>
-      <c r="E80" s="226"/>
-      <c r="F80" s="226"/>
-      <c r="G80" s="226"/>
-      <c r="H80" s="226"/>
-      <c r="I80" s="226"/>
-      <c r="J80" s="227"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="222"/>
-      <c r="B81" s="223"/>
-      <c r="C81" s="224"/>
-      <c r="D81" s="225"/>
-      <c r="E81" s="226"/>
-      <c r="F81" s="226"/>
-      <c r="G81" s="226"/>
-      <c r="H81" s="226"/>
-      <c r="I81" s="226"/>
-      <c r="J81" s="227"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="222"/>
-      <c r="B82" s="223"/>
-      <c r="C82" s="224"/>
-      <c r="D82" s="225"/>
-      <c r="E82" s="226"/>
-      <c r="F82" s="226"/>
-      <c r="G82" s="226"/>
-      <c r="H82" s="226"/>
-      <c r="I82" s="226"/>
-      <c r="J82" s="227"/>
-    </row>
-    <row r="83" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="228"/>
-      <c r="B83" s="229"/>
-      <c r="C83" s="230"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="232"/>
-      <c r="G83" s="232"/>
-      <c r="H83" s="232"/>
-      <c r="I83" s="232"/>
-      <c r="J83" s="233"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="234">
-        <v>13</v>
-      </c>
-      <c r="B84" s="235" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="236"/>
-      <c r="D84" s="237"/>
-      <c r="E84" s="238"/>
-      <c r="F84" s="238"/>
-      <c r="G84" s="238"/>
-      <c r="H84" s="238"/>
-      <c r="I84" s="238"/>
-      <c r="J84" s="239"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="240"/>
-      <c r="B85" s="241"/>
-      <c r="C85" s="242"/>
-      <c r="D85" s="243"/>
-      <c r="E85" s="244"/>
-      <c r="F85" s="244"/>
-      <c r="G85" s="244"/>
-      <c r="H85" s="244"/>
-      <c r="I85" s="244"/>
-      <c r="J85" s="245"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="240"/>
-      <c r="B86" s="241"/>
-      <c r="C86" s="242"/>
-      <c r="D86" s="243"/>
-      <c r="E86" s="244"/>
-      <c r="F86" s="244"/>
-      <c r="G86" s="244"/>
-      <c r="H86" s="244"/>
-      <c r="I86" s="244"/>
-      <c r="J86" s="245"/>
-    </row>
-    <row r="87" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="246"/>
-      <c r="B87" s="247"/>
-      <c r="C87" s="248"/>
-      <c r="D87" s="249"/>
-      <c r="E87" s="250"/>
-      <c r="F87" s="250"/>
-      <c r="G87" s="250"/>
-      <c r="H87" s="250"/>
-      <c r="I87" s="250"/>
-      <c r="J87" s="251"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="73"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="18"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="252">
-        <v>14</v>
-      </c>
-      <c r="B88" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="254"/>
-      <c r="D88" s="255"/>
-      <c r="E88" s="256"/>
-      <c r="F88" s="256"/>
-      <c r="G88" s="256"/>
-      <c r="H88" s="256"/>
-      <c r="I88" s="256"/>
-      <c r="J88" s="257"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="67"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="258"/>
-      <c r="B89" s="259"/>
-      <c r="C89" s="260"/>
-      <c r="D89" s="261"/>
-      <c r="E89" s="262"/>
-      <c r="F89" s="262"/>
-      <c r="G89" s="262"/>
-      <c r="H89" s="262"/>
-      <c r="I89" s="262"/>
-      <c r="J89" s="263"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="258"/>
-      <c r="B90" s="259"/>
-      <c r="C90" s="260"/>
-      <c r="D90" s="261"/>
-      <c r="E90" s="262"/>
-      <c r="F90" s="262"/>
-      <c r="G90" s="262"/>
-      <c r="H90" s="262"/>
-      <c r="I90" s="262"/>
-      <c r="J90" s="263"/>
-    </row>
-    <row r="91" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="264"/>
-      <c r="B91" s="265"/>
-      <c r="C91" s="266"/>
-      <c r="D91" s="267"/>
-      <c r="E91" s="268"/>
-      <c r="F91" s="268"/>
-      <c r="G91" s="268"/>
-      <c r="H91" s="268"/>
-      <c r="I91" s="268"/>
-      <c r="J91" s="269"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="67"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="18"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="270">
-        <v>15</v>
-      </c>
-      <c r="B92" s="271" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="272"/>
-      <c r="D92" s="273"/>
-      <c r="E92" s="274"/>
-      <c r="F92" s="274"/>
-      <c r="G92" s="274"/>
-      <c r="H92" s="274"/>
-      <c r="I92" s="274"/>
-      <c r="J92" s="275"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="276"/>
-      <c r="B93" s="277"/>
-      <c r="C93" s="278"/>
-      <c r="D93" s="279"/>
-      <c r="E93" s="280"/>
-      <c r="F93" s="280"/>
-      <c r="G93" s="280"/>
-      <c r="H93" s="280"/>
-      <c r="I93" s="280"/>
-      <c r="J93" s="281"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="276"/>
-      <c r="B94" s="277"/>
-      <c r="C94" s="278"/>
-      <c r="D94" s="279"/>
-      <c r="E94" s="280"/>
-      <c r="F94" s="280"/>
-      <c r="G94" s="280"/>
-      <c r="H94" s="280"/>
-      <c r="I94" s="280"/>
-      <c r="J94" s="281"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="276"/>
-      <c r="B95" s="277"/>
-      <c r="C95" s="278"/>
-      <c r="D95" s="279"/>
-      <c r="E95" s="280"/>
-      <c r="F95" s="280"/>
-      <c r="G95" s="280"/>
-      <c r="H95" s="280"/>
-      <c r="I95" s="280"/>
-      <c r="J95" s="281"/>
-    </row>
-    <row r="96" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="282"/>
-      <c r="B96" s="283"/>
-      <c r="C96" s="284"/>
-      <c r="D96" s="285"/>
-      <c r="E96" s="286"/>
-      <c r="F96" s="286"/>
-      <c r="G96" s="286"/>
-      <c r="H96" s="286"/>
-      <c r="I96" s="286"/>
-      <c r="J96" s="287"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="67"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="18"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="67"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="288">
-        <v>16</v>
-      </c>
-      <c r="B97" s="289" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" s="290" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="291"/>
-      <c r="E97" s="292"/>
-      <c r="F97" s="292"/>
-      <c r="G97" s="292"/>
-      <c r="H97" s="292"/>
-      <c r="I97" s="292"/>
-      <c r="J97" s="293"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="67"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="294"/>
-      <c r="B98" s="295"/>
-      <c r="C98" s="296"/>
-      <c r="D98" s="297"/>
-      <c r="E98" s="298"/>
-      <c r="F98" s="298"/>
-      <c r="G98" s="298"/>
-      <c r="H98" s="298"/>
-      <c r="I98" s="298"/>
-      <c r="J98" s="299"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="67"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="294"/>
-      <c r="B99" s="295"/>
-      <c r="C99" s="296"/>
-      <c r="D99" s="297"/>
-      <c r="E99" s="298"/>
-      <c r="F99" s="298"/>
-      <c r="G99" s="298"/>
-      <c r="H99" s="298"/>
-      <c r="I99" s="298"/>
-      <c r="J99" s="299"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="294"/>
-      <c r="B100" s="295"/>
-      <c r="C100" s="296"/>
-      <c r="D100" s="297"/>
-      <c r="E100" s="298"/>
-      <c r="F100" s="298"/>
-      <c r="G100" s="298"/>
-      <c r="H100" s="298"/>
-      <c r="I100" s="298"/>
-      <c r="J100" s="299"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="294"/>
-      <c r="B101" s="295"/>
-      <c r="C101" s="296"/>
-      <c r="D101" s="297"/>
-      <c r="E101" s="298"/>
-      <c r="F101" s="298"/>
-      <c r="G101" s="298"/>
-      <c r="H101" s="298"/>
-      <c r="I101" s="298"/>
-      <c r="J101" s="299"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="294"/>
-      <c r="B102" s="295"/>
-      <c r="C102" s="296"/>
-      <c r="D102" s="297"/>
-      <c r="E102" s="298"/>
-      <c r="F102" s="298"/>
-      <c r="G102" s="298"/>
-      <c r="H102" s="298"/>
-      <c r="I102" s="298"/>
-      <c r="J102" s="299"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="294"/>
-      <c r="B103" s="295"/>
-      <c r="C103" s="296"/>
-      <c r="D103" s="297"/>
-      <c r="E103" s="298"/>
-      <c r="F103" s="298"/>
-      <c r="G103" s="298"/>
-      <c r="H103" s="298"/>
-      <c r="I103" s="298"/>
-      <c r="J103" s="299"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="294"/>
-      <c r="B104" s="295"/>
-      <c r="C104" s="296"/>
-      <c r="D104" s="297"/>
-      <c r="E104" s="298"/>
-      <c r="F104" s="298"/>
-      <c r="G104" s="298"/>
-      <c r="H104" s="298"/>
-      <c r="I104" s="298"/>
-      <c r="J104" s="299"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="60"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="60"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="67"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="60"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="67"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="60"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="67"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="60"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="60"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="60"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="60"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="60"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="60"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="60"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="60"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="67"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="60"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="67"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="60"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="67"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
-      <c r="H119" s="59"/>
-      <c r="I119" s="59"/>
-      <c r="J119" s="60"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="60"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="66"/>
+      <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="60"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="60"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="16"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
-      <c r="H123" s="59"/>
-      <c r="I123" s="59"/>
-      <c r="J123" s="60"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="59"/>
-      <c r="H124" s="59"/>
-      <c r="I124" s="59"/>
-      <c r="J124" s="60"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="16"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="59"/>
-      <c r="H125" s="59"/>
-      <c r="I125" s="59"/>
-      <c r="J125" s="60"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="16"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="59"/>
-      <c r="H126" s="59"/>
-      <c r="I126" s="59"/>
-      <c r="J126" s="60"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="67"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="16"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="59"/>
-      <c r="H127" s="59"/>
-      <c r="I127" s="59"/>
-      <c r="J127" s="60"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+      <c r="J127" s="67"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="16"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59"/>
-      <c r="H128" s="59"/>
-      <c r="I128" s="59"/>
-      <c r="J128" s="60"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="67"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="59"/>
-      <c r="H129" s="59"/>
-      <c r="I129" s="59"/>
-      <c r="J129" s="60"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="59"/>
-      <c r="G130" s="59"/>
-      <c r="H130" s="59"/>
-      <c r="I130" s="59"/>
-      <c r="J130" s="60"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="59"/>
-      <c r="G131" s="59"/>
-      <c r="H131" s="59"/>
-      <c r="I131" s="59"/>
-      <c r="J131" s="60"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="66"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
+      <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="16"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="60"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="60"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="66"/>
+      <c r="H133" s="66"/>
+      <c r="I133" s="66"/>
+      <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="16"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="60"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="66"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="66"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="66"/>
+      <c r="J134" s="67"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="59"/>
-      <c r="I135" s="59"/>
-      <c r="J135" s="60"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="66"/>
+      <c r="J135" s="67"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="16"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="59"/>
-      <c r="H136" s="59"/>
-      <c r="I136" s="59"/>
-      <c r="J136" s="60"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="67"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="16"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="59"/>
-      <c r="I137" s="59"/>
-      <c r="J137" s="60"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="66"/>
+      <c r="J137" s="67"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="16"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59"/>
-      <c r="H138" s="59"/>
-      <c r="I138" s="59"/>
-      <c r="J138" s="60"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="66"/>
+      <c r="J138" s="67"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="16"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="59"/>
-      <c r="I139" s="59"/>
-      <c r="J139" s="60"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="67"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="16"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59"/>
-      <c r="H140" s="59"/>
-      <c r="I140" s="59"/>
-      <c r="J140" s="60"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="66"/>
+      <c r="I140" s="66"/>
+      <c r="J140" s="67"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="16"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="59"/>
-      <c r="I141" s="59"/>
-      <c r="J141" s="60"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="16"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="59"/>
-      <c r="I142" s="59"/>
-      <c r="J142" s="60"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
+      <c r="I142" s="66"/>
+      <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="16"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59"/>
-      <c r="H143" s="59"/>
-      <c r="I143" s="59"/>
-      <c r="J143" s="60"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+      <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="16"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59"/>
-      <c r="H144" s="59"/>
-      <c r="I144" s="59"/>
-      <c r="J144" s="60"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="66"/>
+      <c r="H144" s="66"/>
+      <c r="I144" s="66"/>
+      <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
-      <c r="H145" s="59"/>
-      <c r="I145" s="59"/>
-      <c r="J145" s="60"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
+      <c r="J145" s="67"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="16"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="59"/>
-      <c r="I146" s="59"/>
-      <c r="J146" s="60"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="66"/>
+      <c r="G146" s="66"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
+      <c r="J146" s="67"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="16"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="59"/>
-      <c r="J147" s="60"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="66"/>
+      <c r="J147" s="67"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="16"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="60"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="66"/>
+      <c r="H148" s="66"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="67"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="16"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="60"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="16"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="60"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="I150" s="66"/>
+      <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="16"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="60"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="66"/>
+      <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="60"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="66"/>
+      <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="16"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="59"/>
-      <c r="J153" s="60"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
+      <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="16"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="59"/>
-      <c r="J154" s="60"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="66"/>
+      <c r="J154" s="67"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="16"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59"/>
-      <c r="H155" s="59"/>
-      <c r="I155" s="59"/>
-      <c r="J155" s="60"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="66"/>
+      <c r="H155" s="66"/>
+      <c r="I155" s="66"/>
+      <c r="J155" s="67"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="16"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59"/>
-      <c r="H156" s="59"/>
-      <c r="I156" s="59"/>
-      <c r="J156" s="60"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="66"/>
+      <c r="J156" s="67"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="16"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59"/>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
-      <c r="J157" s="60"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="66"/>
+      <c r="J157" s="67"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="16"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="59"/>
-      <c r="I158" s="59"/>
-      <c r="J158" s="60"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="66"/>
+      <c r="J158" s="67"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" s="16"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59"/>
-      <c r="H159" s="59"/>
-      <c r="I159" s="59"/>
-      <c r="J159" s="60"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="66"/>
+      <c r="J159" s="67"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="16"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59"/>
-      <c r="H160" s="59"/>
-      <c r="I160" s="59"/>
-      <c r="J160" s="60"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="66"/>
+      <c r="J160" s="67"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="16"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="59"/>
-      <c r="H161" s="59"/>
-      <c r="I161" s="59"/>
-      <c r="J161" s="60"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="66"/>
+      <c r="I161" s="66"/>
+      <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="16"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="59"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="59"/>
-      <c r="I162" s="59"/>
-      <c r="J162" s="60"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="66"/>
+      <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="16"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="59"/>
-      <c r="J163" s="60"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
+      <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="16"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="59"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="60"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="66"/>
+      <c r="H164" s="66"/>
+      <c r="I164" s="66"/>
+      <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="16"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="60"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="66"/>
+      <c r="I165" s="66"/>
+      <c r="J165" s="67"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="16"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="60"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="66"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="66"/>
+      <c r="J166" s="67"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="16"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="60"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
+      <c r="I167" s="66"/>
+      <c r="J167" s="67"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="16"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="60"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="66"/>
+      <c r="J168" s="67"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="16"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="60"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="66"/>
+      <c r="J169" s="67"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="16"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="60"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="66"/>
+      <c r="I170" s="66"/>
+      <c r="J170" s="67"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="16"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="60"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="66"/>
+      <c r="I171" s="66"/>
+      <c r="J171" s="67"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="16"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="60"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="66"/>
+      <c r="J172" s="67"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="16"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="60"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="65"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66"/>
+      <c r="I173" s="66"/>
+      <c r="J173" s="67"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="16"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="59"/>
-      <c r="H174" s="59"/>
-      <c r="I174" s="59"/>
-      <c r="J174" s="60"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="66"/>
+      <c r="H174" s="66"/>
+      <c r="I174" s="66"/>
+      <c r="J174" s="67"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="16"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="59"/>
-      <c r="J175" s="60"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="66"/>
+      <c r="J175" s="67"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="16"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="59"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="59"/>
-      <c r="H176" s="59"/>
-      <c r="I176" s="59"/>
-      <c r="J176" s="60"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="66"/>
+      <c r="J176" s="67"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="16"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="59"/>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
-      <c r="J177" s="60"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="65"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="67"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="16"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="59"/>
-      <c r="H178" s="59"/>
-      <c r="I178" s="59"/>
-      <c r="J178" s="60"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="66"/>
+      <c r="H178" s="66"/>
+      <c r="I178" s="66"/>
+      <c r="J178" s="67"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="16"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="59"/>
-      <c r="G179" s="59"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="59"/>
-      <c r="J179" s="60"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="66"/>
+      <c r="H179" s="66"/>
+      <c r="I179" s="66"/>
+      <c r="J179" s="67"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="16"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="59"/>
-      <c r="J180" s="60"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="66"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="66"/>
+      <c r="H180" s="66"/>
+      <c r="I180" s="66"/>
+      <c r="J180" s="67"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="16"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
-      <c r="J181" s="60"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="66"/>
+      <c r="F181" s="66"/>
+      <c r="G181" s="66"/>
+      <c r="H181" s="66"/>
+      <c r="I181" s="66"/>
+      <c r="J181" s="67"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="16"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
-      <c r="J182" s="60"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="65"/>
+      <c r="E182" s="66"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
+      <c r="J182" s="67"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="16"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
-      <c r="J183" s="60"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="65"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="66"/>
+      <c r="I183" s="66"/>
+      <c r="J183" s="67"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="16"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="59"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
-      <c r="J184" s="60"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="65"/>
+      <c r="E184" s="66"/>
+      <c r="F184" s="66"/>
+      <c r="G184" s="66"/>
+      <c r="H184" s="66"/>
+      <c r="I184" s="66"/>
+      <c r="J184" s="67"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="16"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
-      <c r="J185" s="60"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="66"/>
+      <c r="F185" s="66"/>
+      <c r="G185" s="66"/>
+      <c r="H185" s="66"/>
+      <c r="I185" s="66"/>
+      <c r="J185" s="67"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="16"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="60"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="65"/>
+      <c r="E186" s="66"/>
+      <c r="F186" s="66"/>
+      <c r="G186" s="66"/>
+      <c r="H186" s="66"/>
+      <c r="I186" s="66"/>
+      <c r="J186" s="67"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="16"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="60"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="66"/>
+      <c r="F187" s="66"/>
+      <c r="G187" s="66"/>
+      <c r="H187" s="66"/>
+      <c r="I187" s="66"/>
+      <c r="J187" s="67"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="16"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="59"/>
-      <c r="F188" s="59"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
-      <c r="J188" s="60"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="66"/>
+      <c r="I188" s="66"/>
+      <c r="J188" s="67"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="16"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
-      <c r="J189" s="60"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="65"/>
+      <c r="E189" s="66"/>
+      <c r="F189" s="66"/>
+      <c r="G189" s="66"/>
+      <c r="H189" s="66"/>
+      <c r="I189" s="66"/>
+      <c r="J189" s="67"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="16"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
-      <c r="G190" s="59"/>
-      <c r="H190" s="59"/>
-      <c r="I190" s="59"/>
-      <c r="J190" s="60"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="65"/>
+      <c r="E190" s="66"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="66"/>
+      <c r="H190" s="66"/>
+      <c r="I190" s="66"/>
+      <c r="J190" s="67"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="16"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
-      <c r="J191" s="60"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="65"/>
+      <c r="E191" s="66"/>
+      <c r="F191" s="66"/>
+      <c r="G191" s="66"/>
+      <c r="H191" s="66"/>
+      <c r="I191" s="66"/>
+      <c r="J191" s="67"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="16"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
-      <c r="J192" s="60"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="66"/>
+      <c r="F192" s="66"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="66"/>
+      <c r="I192" s="66"/>
+      <c r="J192" s="67"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="16"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
-      <c r="J193" s="60"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="65"/>
+      <c r="E193" s="66"/>
+      <c r="F193" s="66"/>
+      <c r="G193" s="66"/>
+      <c r="H193" s="66"/>
+      <c r="I193" s="66"/>
+      <c r="J193" s="67"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="16"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
-      <c r="J194" s="60"/>
+      <c r="A194" s="18"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="66"/>
+      <c r="F194" s="66"/>
+      <c r="G194" s="66"/>
+      <c r="H194" s="66"/>
+      <c r="I194" s="66"/>
+      <c r="J194" s="67"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="16"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
-      <c r="J195" s="60"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="65"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
+      <c r="G195" s="66"/>
+      <c r="H195" s="66"/>
+      <c r="I195" s="66"/>
+      <c r="J195" s="67"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="16"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
-      <c r="J196" s="60"/>
+      <c r="A196" s="18"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="66"/>
+      <c r="F196" s="66"/>
+      <c r="G196" s="66"/>
+      <c r="H196" s="66"/>
+      <c r="I196" s="66"/>
+      <c r="J196" s="67"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="16"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
-      <c r="G197" s="59"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="59"/>
-      <c r="J197" s="60"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="65"/>
+      <c r="E197" s="66"/>
+      <c r="F197" s="66"/>
+      <c r="G197" s="66"/>
+      <c r="H197" s="66"/>
+      <c r="I197" s="66"/>
+      <c r="J197" s="67"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="16"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
-      <c r="J198" s="60"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
+      <c r="I198" s="66"/>
+      <c r="J198" s="67"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="16"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="60"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="66"/>
+      <c r="J199" s="67"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="16"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
-      <c r="J200" s="60"/>
+      <c r="A200" s="18"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="66"/>
+      <c r="I200" s="66"/>
+      <c r="J200" s="67"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="16"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="60"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
+      <c r="I201" s="66"/>
+      <c r="J201" s="67"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="16"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
-      <c r="J202" s="60"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="65"/>
+      <c r="E202" s="66"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
+      <c r="I202" s="66"/>
+      <c r="J202" s="67"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="16"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="59"/>
-      <c r="H203" s="59"/>
-      <c r="I203" s="59"/>
-      <c r="J203" s="60"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="65"/>
+      <c r="E203" s="66"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="66"/>
+      <c r="H203" s="66"/>
+      <c r="I203" s="66"/>
+      <c r="J203" s="67"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="16"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
-      <c r="J204" s="60"/>
+      <c r="A204" s="18"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="65"/>
+      <c r="E204" s="66"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
+      <c r="I204" s="66"/>
+      <c r="J204" s="67"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="16"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="59"/>
-      <c r="I205" s="59"/>
-      <c r="J205" s="60"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="65"/>
+      <c r="E205" s="66"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
+      <c r="I205" s="66"/>
+      <c r="J205" s="67"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="16"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="59"/>
-      <c r="F206" s="59"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="59"/>
-      <c r="I206" s="59"/>
-      <c r="J206" s="60"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="65"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="66"/>
+      <c r="I206" s="66"/>
+      <c r="J206" s="67"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="16"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
-      <c r="J207" s="60"/>
+      <c r="A207" s="18"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
+      <c r="I207" s="66"/>
+      <c r="J207" s="67"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="16"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="60"/>
+      <c r="A208" s="18"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="67"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" s="16"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="59"/>
-      <c r="I209" s="59"/>
-      <c r="J209" s="60"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
+      <c r="J209" s="67"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="16"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="59"/>
-      <c r="J210" s="60"/>
+      <c r="A210" s="18"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="66"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="66"/>
+      <c r="J210" s="67"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="16"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
-      <c r="J211" s="60"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="66"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
+      <c r="I211" s="66"/>
+      <c r="J211" s="67"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="16"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="59"/>
-      <c r="G212" s="59"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="59"/>
-      <c r="J212" s="60"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="67"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="16"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="59"/>
-      <c r="G213" s="59"/>
-      <c r="H213" s="59"/>
-      <c r="I213" s="59"/>
-      <c r="J213" s="60"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
+      <c r="J213" s="67"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="16"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="59"/>
-      <c r="G214" s="59"/>
-      <c r="H214" s="59"/>
-      <c r="I214" s="59"/>
-      <c r="J214" s="60"/>
+      <c r="A214" s="18"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="66"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="66"/>
+      <c r="H214" s="66"/>
+      <c r="I214" s="66"/>
+      <c r="J214" s="67"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="16"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="59"/>
-      <c r="F215" s="59"/>
-      <c r="G215" s="59"/>
-      <c r="H215" s="59"/>
-      <c r="I215" s="59"/>
-      <c r="J215" s="60"/>
+      <c r="A215" s="18"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="66"/>
+      <c r="F215" s="66"/>
+      <c r="G215" s="66"/>
+      <c r="H215" s="66"/>
+      <c r="I215" s="66"/>
+      <c r="J215" s="67"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="16"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="59"/>
-      <c r="F216" s="59"/>
-      <c r="G216" s="59"/>
-      <c r="H216" s="59"/>
-      <c r="I216" s="59"/>
-      <c r="J216" s="60"/>
+      <c r="A216" s="18"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="66"/>
+      <c r="F216" s="66"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="66"/>
+      <c r="I216" s="66"/>
+      <c r="J216" s="67"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" s="16"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="59"/>
-      <c r="G217" s="59"/>
-      <c r="H217" s="59"/>
-      <c r="I217" s="59"/>
-      <c r="J217" s="60"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="66"/>
+      <c r="F217" s="66"/>
+      <c r="G217" s="66"/>
+      <c r="H217" s="66"/>
+      <c r="I217" s="66"/>
+      <c r="J217" s="67"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="16"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="59"/>
-      <c r="F218" s="59"/>
-      <c r="G218" s="59"/>
-      <c r="H218" s="59"/>
-      <c r="I218" s="59"/>
-      <c r="J218" s="60"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="65"/>
+      <c r="E218" s="66"/>
+      <c r="F218" s="66"/>
+      <c r="G218" s="66"/>
+      <c r="H218" s="66"/>
+      <c r="I218" s="66"/>
+      <c r="J218" s="67"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="16"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="60"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="65"/>
+      <c r="E219" s="66"/>
+      <c r="F219" s="66"/>
+      <c r="G219" s="66"/>
+      <c r="H219" s="66"/>
+      <c r="I219" s="66"/>
+      <c r="J219" s="67"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="16"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
-      <c r="G220" s="59"/>
-      <c r="H220" s="59"/>
-      <c r="I220" s="59"/>
-      <c r="J220" s="60"/>
+      <c r="A220" s="18"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="65"/>
+      <c r="E220" s="66"/>
+      <c r="F220" s="66"/>
+      <c r="G220" s="66"/>
+      <c r="H220" s="66"/>
+      <c r="I220" s="66"/>
+      <c r="J220" s="67"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="16"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="59"/>
-      <c r="H221" s="59"/>
-      <c r="I221" s="59"/>
-      <c r="J221" s="60"/>
+      <c r="A221" s="18"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="65"/>
+      <c r="E221" s="66"/>
+      <c r="F221" s="66"/>
+      <c r="G221" s="66"/>
+      <c r="H221" s="66"/>
+      <c r="I221" s="66"/>
+      <c r="J221" s="67"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" s="16"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="59"/>
-      <c r="F222" s="59"/>
-      <c r="G222" s="59"/>
-      <c r="H222" s="59"/>
-      <c r="I222" s="59"/>
-      <c r="J222" s="60"/>
+      <c r="A222" s="18"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="65"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="66"/>
+      <c r="G222" s="66"/>
+      <c r="H222" s="66"/>
+      <c r="I222" s="66"/>
+      <c r="J222" s="67"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A223" s="16"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="59"/>
-      <c r="F223" s="59"/>
-      <c r="G223" s="59"/>
-      <c r="H223" s="59"/>
-      <c r="I223" s="59"/>
-      <c r="J223" s="60"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="65"/>
+      <c r="E223" s="66"/>
+      <c r="F223" s="66"/>
+      <c r="G223" s="66"/>
+      <c r="H223" s="66"/>
+      <c r="I223" s="66"/>
+      <c r="J223" s="67"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A224" s="16"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="59"/>
-      <c r="G224" s="59"/>
-      <c r="H224" s="59"/>
-      <c r="I224" s="59"/>
-      <c r="J224" s="60"/>
+      <c r="A224" s="18"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="66"/>
+      <c r="F224" s="66"/>
+      <c r="G224" s="66"/>
+      <c r="H224" s="66"/>
+      <c r="I224" s="66"/>
+      <c r="J224" s="67"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="16"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="58"/>
-      <c r="E225" s="59"/>
-      <c r="F225" s="59"/>
-      <c r="G225" s="59"/>
-      <c r="H225" s="59"/>
-      <c r="I225" s="59"/>
-      <c r="J225" s="60"/>
+      <c r="A225" s="18"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="66"/>
+      <c r="F225" s="66"/>
+      <c r="G225" s="66"/>
+      <c r="H225" s="66"/>
+      <c r="I225" s="66"/>
+      <c r="J225" s="67"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="16"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="59"/>
-      <c r="H226" s="59"/>
-      <c r="I226" s="59"/>
-      <c r="J226" s="60"/>
+      <c r="A226" s="18"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="66"/>
+      <c r="F226" s="66"/>
+      <c r="G226" s="66"/>
+      <c r="H226" s="66"/>
+      <c r="I226" s="66"/>
+      <c r="J226" s="67"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="16"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="59"/>
-      <c r="F227" s="59"/>
-      <c r="G227" s="59"/>
-      <c r="H227" s="59"/>
-      <c r="I227" s="59"/>
-      <c r="J227" s="60"/>
+      <c r="A227" s="18"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="66"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="66"/>
+      <c r="H227" s="66"/>
+      <c r="I227" s="66"/>
+      <c r="J227" s="67"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="16"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="59"/>
-      <c r="F228" s="59"/>
-      <c r="G228" s="59"/>
-      <c r="H228" s="59"/>
-      <c r="I228" s="59"/>
-      <c r="J228" s="60"/>
+      <c r="A228" s="18"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="66"/>
+      <c r="F228" s="66"/>
+      <c r="G228" s="66"/>
+      <c r="H228" s="66"/>
+      <c r="I228" s="66"/>
+      <c r="J228" s="67"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" s="16"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="59"/>
-      <c r="H229" s="59"/>
-      <c r="I229" s="59"/>
-      <c r="J229" s="60"/>
+      <c r="A229" s="18"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="65"/>
+      <c r="E229" s="66"/>
+      <c r="F229" s="66"/>
+      <c r="G229" s="66"/>
+      <c r="H229" s="66"/>
+      <c r="I229" s="66"/>
+      <c r="J229" s="67"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="16"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="59"/>
-      <c r="F230" s="59"/>
-      <c r="G230" s="59"/>
-      <c r="H230" s="59"/>
-      <c r="I230" s="59"/>
-      <c r="J230" s="60"/>
+      <c r="A230" s="18"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="65"/>
+      <c r="E230" s="66"/>
+      <c r="F230" s="66"/>
+      <c r="G230" s="66"/>
+      <c r="H230" s="66"/>
+      <c r="I230" s="66"/>
+      <c r="J230" s="67"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="16"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="59"/>
-      <c r="G231" s="59"/>
-      <c r="H231" s="59"/>
-      <c r="I231" s="59"/>
-      <c r="J231" s="60"/>
+      <c r="A231" s="18"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="65"/>
+      <c r="E231" s="66"/>
+      <c r="F231" s="66"/>
+      <c r="G231" s="66"/>
+      <c r="H231" s="66"/>
+      <c r="I231" s="66"/>
+      <c r="J231" s="67"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="16"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="59"/>
-      <c r="H232" s="59"/>
-      <c r="I232" s="59"/>
-      <c r="J232" s="60"/>
+      <c r="A232" s="18"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="65"/>
+      <c r="E232" s="66"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="66"/>
+      <c r="H232" s="66"/>
+      <c r="I232" s="66"/>
+      <c r="J232" s="67"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" s="16"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="59"/>
-      <c r="F233" s="59"/>
-      <c r="G233" s="59"/>
-      <c r="H233" s="59"/>
-      <c r="I233" s="59"/>
-      <c r="J233" s="60"/>
+      <c r="A233" s="18"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="65"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="66"/>
+      <c r="G233" s="66"/>
+      <c r="H233" s="66"/>
+      <c r="I233" s="66"/>
+      <c r="J233" s="67"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" s="16"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="58"/>
-      <c r="E234" s="59"/>
-      <c r="F234" s="59"/>
-      <c r="G234" s="59"/>
-      <c r="H234" s="59"/>
-      <c r="I234" s="59"/>
-      <c r="J234" s="60"/>
+      <c r="A234" s="18"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="65"/>
+      <c r="E234" s="66"/>
+      <c r="F234" s="66"/>
+      <c r="G234" s="66"/>
+      <c r="H234" s="66"/>
+      <c r="I234" s="66"/>
+      <c r="J234" s="67"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" s="16"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="58"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
-      <c r="G235" s="59"/>
-      <c r="H235" s="59"/>
-      <c r="I235" s="59"/>
-      <c r="J235" s="60"/>
+      <c r="A235" s="18"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="65"/>
+      <c r="E235" s="66"/>
+      <c r="F235" s="66"/>
+      <c r="G235" s="66"/>
+      <c r="H235" s="66"/>
+      <c r="I235" s="66"/>
+      <c r="J235" s="67"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" s="16"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="58"/>
-      <c r="E236" s="59"/>
-      <c r="F236" s="59"/>
-      <c r="G236" s="59"/>
-      <c r="H236" s="59"/>
-      <c r="I236" s="59"/>
-      <c r="J236" s="60"/>
+      <c r="A236" s="18"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="65"/>
+      <c r="E236" s="66"/>
+      <c r="F236" s="66"/>
+      <c r="G236" s="66"/>
+      <c r="H236" s="66"/>
+      <c r="I236" s="66"/>
+      <c r="J236" s="67"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" s="16"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="58"/>
-      <c r="E237" s="59"/>
-      <c r="F237" s="59"/>
-      <c r="G237" s="59"/>
-      <c r="H237" s="59"/>
-      <c r="I237" s="59"/>
-      <c r="J237" s="60"/>
+      <c r="A237" s="18"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="65"/>
+      <c r="E237" s="66"/>
+      <c r="F237" s="66"/>
+      <c r="G237" s="66"/>
+      <c r="H237" s="66"/>
+      <c r="I237" s="66"/>
+      <c r="J237" s="67"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" s="16"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="58"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="59"/>
-      <c r="G238" s="59"/>
-      <c r="H238" s="59"/>
-      <c r="I238" s="59"/>
-      <c r="J238" s="60"/>
+      <c r="A238" s="18"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="65"/>
+      <c r="E238" s="66"/>
+      <c r="F238" s="66"/>
+      <c r="G238" s="66"/>
+      <c r="H238" s="66"/>
+      <c r="I238" s="66"/>
+      <c r="J238" s="67"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="16"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="58"/>
-      <c r="E239" s="59"/>
-      <c r="F239" s="59"/>
-      <c r="G239" s="59"/>
-      <c r="H239" s="59"/>
-      <c r="I239" s="59"/>
-      <c r="J239" s="60"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="65"/>
+      <c r="E239" s="66"/>
+      <c r="F239" s="66"/>
+      <c r="G239" s="66"/>
+      <c r="H239" s="66"/>
+      <c r="I239" s="66"/>
+      <c r="J239" s="67"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="16"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="58"/>
-      <c r="E240" s="59"/>
-      <c r="F240" s="59"/>
-      <c r="G240" s="59"/>
-      <c r="H240" s="59"/>
-      <c r="I240" s="59"/>
-      <c r="J240" s="60"/>
+      <c r="A240" s="18"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="66"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="66"/>
+      <c r="H240" s="66"/>
+      <c r="I240" s="66"/>
+      <c r="J240" s="67"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A241" s="16"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="58"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="59"/>
-      <c r="G241" s="59"/>
-      <c r="H241" s="59"/>
-      <c r="I241" s="59"/>
-      <c r="J241" s="60"/>
+      <c r="A241" s="18"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="65"/>
+      <c r="E241" s="66"/>
+      <c r="F241" s="66"/>
+      <c r="G241" s="66"/>
+      <c r="H241" s="66"/>
+      <c r="I241" s="66"/>
+      <c r="J241" s="67"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" s="16"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="58"/>
-      <c r="E242" s="59"/>
-      <c r="F242" s="59"/>
-      <c r="G242" s="59"/>
-      <c r="H242" s="59"/>
-      <c r="I242" s="59"/>
-      <c r="J242" s="60"/>
+      <c r="A242" s="18"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="65"/>
+      <c r="E242" s="66"/>
+      <c r="F242" s="66"/>
+      <c r="G242" s="66"/>
+      <c r="H242" s="66"/>
+      <c r="I242" s="66"/>
+      <c r="J242" s="67"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A243" s="16"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="58"/>
-      <c r="E243" s="59"/>
-      <c r="F243" s="59"/>
-      <c r="G243" s="59"/>
-      <c r="H243" s="59"/>
-      <c r="I243" s="59"/>
-      <c r="J243" s="60"/>
+      <c r="A243" s="18"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="65"/>
+      <c r="E243" s="66"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
+      <c r="H243" s="66"/>
+      <c r="I243" s="66"/>
+      <c r="J243" s="67"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A244" s="16"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="59"/>
-      <c r="F244" s="59"/>
-      <c r="G244" s="59"/>
-      <c r="H244" s="59"/>
-      <c r="I244" s="59"/>
-      <c r="J244" s="60"/>
+      <c r="A244" s="18"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="65"/>
+      <c r="E244" s="66"/>
+      <c r="F244" s="66"/>
+      <c r="G244" s="66"/>
+      <c r="H244" s="66"/>
+      <c r="I244" s="66"/>
+      <c r="J244" s="67"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A245" s="16"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="58"/>
-      <c r="E245" s="59"/>
-      <c r="F245" s="59"/>
-      <c r="G245" s="59"/>
-      <c r="H245" s="59"/>
-      <c r="I245" s="59"/>
-      <c r="J245" s="60"/>
+      <c r="A245" s="18"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="65"/>
+      <c r="E245" s="66"/>
+      <c r="F245" s="66"/>
+      <c r="G245" s="66"/>
+      <c r="H245" s="66"/>
+      <c r="I245" s="66"/>
+      <c r="J245" s="67"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A246" s="16"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="58"/>
-      <c r="E246" s="59"/>
-      <c r="F246" s="59"/>
-      <c r="G246" s="59"/>
-      <c r="H246" s="59"/>
-      <c r="I246" s="59"/>
-      <c r="J246" s="60"/>
+      <c r="A246" s="18"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="65"/>
+      <c r="E246" s="66"/>
+      <c r="F246" s="66"/>
+      <c r="G246" s="66"/>
+      <c r="H246" s="66"/>
+      <c r="I246" s="66"/>
+      <c r="J246" s="67"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A247" s="16"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="58"/>
-      <c r="E247" s="59"/>
-      <c r="F247" s="59"/>
-      <c r="G247" s="59"/>
-      <c r="H247" s="59"/>
-      <c r="I247" s="59"/>
-      <c r="J247" s="60"/>
+      <c r="A247" s="18"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="65"/>
+      <c r="E247" s="66"/>
+      <c r="F247" s="66"/>
+      <c r="G247" s="66"/>
+      <c r="H247" s="66"/>
+      <c r="I247" s="66"/>
+      <c r="J247" s="67"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A248" s="16"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="58"/>
-      <c r="E248" s="59"/>
-      <c r="F248" s="59"/>
-      <c r="G248" s="59"/>
-      <c r="H248" s="59"/>
-      <c r="I248" s="59"/>
-      <c r="J248" s="60"/>
+      <c r="A248" s="18"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="65"/>
+      <c r="E248" s="66"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="66"/>
+      <c r="I248" s="66"/>
+      <c r="J248" s="67"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A249" s="16"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="58"/>
-      <c r="E249" s="59"/>
-      <c r="F249" s="59"/>
-      <c r="G249" s="59"/>
-      <c r="H249" s="59"/>
-      <c r="I249" s="59"/>
-      <c r="J249" s="60"/>
+      <c r="A249" s="18"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="65"/>
+      <c r="E249" s="66"/>
+      <c r="F249" s="66"/>
+      <c r="G249" s="66"/>
+      <c r="H249" s="66"/>
+      <c r="I249" s="66"/>
+      <c r="J249" s="67"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A250" s="16"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="58"/>
-      <c r="E250" s="59"/>
-      <c r="F250" s="59"/>
-      <c r="G250" s="59"/>
-      <c r="H250" s="59"/>
-      <c r="I250" s="59"/>
-      <c r="J250" s="60"/>
+      <c r="A250" s="18"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="65"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="66"/>
+      <c r="H250" s="66"/>
+      <c r="I250" s="66"/>
+      <c r="J250" s="67"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A251" s="16"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="58"/>
-      <c r="E251" s="59"/>
-      <c r="F251" s="59"/>
-      <c r="G251" s="59"/>
-      <c r="H251" s="59"/>
-      <c r="I251" s="59"/>
-      <c r="J251" s="60"/>
+      <c r="A251" s="18"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="65"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="66"/>
+      <c r="G251" s="66"/>
+      <c r="H251" s="66"/>
+      <c r="I251" s="66"/>
+      <c r="J251" s="67"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A252" s="16"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="58"/>
-      <c r="E252" s="59"/>
-      <c r="F252" s="59"/>
-      <c r="G252" s="59"/>
-      <c r="H252" s="59"/>
-      <c r="I252" s="59"/>
-      <c r="J252" s="60"/>
+      <c r="A252" s="18"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="65"/>
+      <c r="E252" s="66"/>
+      <c r="F252" s="66"/>
+      <c r="G252" s="66"/>
+      <c r="H252" s="66"/>
+      <c r="I252" s="66"/>
+      <c r="J252" s="67"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A253" s="16"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="58"/>
-      <c r="E253" s="59"/>
-      <c r="F253" s="59"/>
-      <c r="G253" s="59"/>
-      <c r="H253" s="59"/>
-      <c r="I253" s="59"/>
-      <c r="J253" s="60"/>
+      <c r="A253" s="18"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="66"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="66"/>
+      <c r="H253" s="66"/>
+      <c r="I253" s="66"/>
+      <c r="J253" s="67"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A254" s="16"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="58"/>
-      <c r="E254" s="59"/>
-      <c r="F254" s="59"/>
-      <c r="G254" s="59"/>
-      <c r="H254" s="59"/>
-      <c r="I254" s="59"/>
-      <c r="J254" s="60"/>
+      <c r="A254" s="18"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="65"/>
+      <c r="E254" s="66"/>
+      <c r="F254" s="66"/>
+      <c r="G254" s="66"/>
+      <c r="H254" s="66"/>
+      <c r="I254" s="66"/>
+      <c r="J254" s="67"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A255" s="16"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="58"/>
-      <c r="E255" s="59"/>
-      <c r="F255" s="59"/>
-      <c r="G255" s="59"/>
-      <c r="H255" s="59"/>
-      <c r="I255" s="59"/>
-      <c r="J255" s="60"/>
+      <c r="A255" s="18"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="65"/>
+      <c r="E255" s="66"/>
+      <c r="F255" s="66"/>
+      <c r="G255" s="66"/>
+      <c r="H255" s="66"/>
+      <c r="I255" s="66"/>
+      <c r="J255" s="67"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A256" s="16"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="58"/>
-      <c r="E256" s="59"/>
-      <c r="F256" s="59"/>
-      <c r="G256" s="59"/>
-      <c r="H256" s="59"/>
-      <c r="I256" s="59"/>
-      <c r="J256" s="60"/>
+      <c r="A256" s="18"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="66"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="66"/>
+      <c r="H256" s="66"/>
+      <c r="I256" s="66"/>
+      <c r="J256" s="67"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A257" s="16"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="59"/>
-      <c r="I257" s="59"/>
-      <c r="J257" s="60"/>
+      <c r="A257" s="18"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="65"/>
+      <c r="E257" s="66"/>
+      <c r="F257" s="66"/>
+      <c r="G257" s="66"/>
+      <c r="H257" s="66"/>
+      <c r="I257" s="66"/>
+      <c r="J257" s="67"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A258" s="16"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="60"/>
+      <c r="A258" s="18"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="66"/>
+      <c r="F258" s="66"/>
+      <c r="G258" s="66"/>
+      <c r="H258" s="66"/>
+      <c r="I258" s="66"/>
+      <c r="J258" s="67"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A259" s="16"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="59"/>
-      <c r="F259" s="59"/>
-      <c r="G259" s="59"/>
-      <c r="H259" s="59"/>
-      <c r="I259" s="59"/>
-      <c r="J259" s="60"/>
+      <c r="A259" s="18"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="65"/>
+      <c r="E259" s="66"/>
+      <c r="F259" s="66"/>
+      <c r="G259" s="66"/>
+      <c r="H259" s="66"/>
+      <c r="I259" s="66"/>
+      <c r="J259" s="67"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A260" s="16"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="58"/>
-      <c r="E260" s="59"/>
-      <c r="F260" s="59"/>
-      <c r="G260" s="59"/>
-      <c r="H260" s="59"/>
-      <c r="I260" s="59"/>
-      <c r="J260" s="60"/>
+      <c r="A260" s="18"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="66"/>
+      <c r="F260" s="66"/>
+      <c r="G260" s="66"/>
+      <c r="H260" s="66"/>
+      <c r="I260" s="66"/>
+      <c r="J260" s="67"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A261" s="16"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="58"/>
-      <c r="E261" s="59"/>
-      <c r="F261" s="59"/>
-      <c r="G261" s="59"/>
-      <c r="H261" s="59"/>
-      <c r="I261" s="59"/>
-      <c r="J261" s="60"/>
+      <c r="A261" s="18"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="65"/>
+      <c r="E261" s="66"/>
+      <c r="F261" s="66"/>
+      <c r="G261" s="66"/>
+      <c r="H261" s="66"/>
+      <c r="I261" s="66"/>
+      <c r="J261" s="67"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A262" s="16"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="59"/>
-      <c r="F262" s="59"/>
-      <c r="G262" s="59"/>
-      <c r="H262" s="59"/>
-      <c r="I262" s="59"/>
-      <c r="J262" s="60"/>
+      <c r="A262" s="18"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="65"/>
+      <c r="E262" s="66"/>
+      <c r="F262" s="66"/>
+      <c r="G262" s="66"/>
+      <c r="H262" s="66"/>
+      <c r="I262" s="66"/>
+      <c r="J262" s="67"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="16"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="58"/>
-      <c r="E263" s="59"/>
-      <c r="F263" s="59"/>
-      <c r="G263" s="59"/>
-      <c r="H263" s="59"/>
-      <c r="I263" s="59"/>
-      <c r="J263" s="60"/>
+      <c r="A263" s="18"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="65"/>
+      <c r="E263" s="66"/>
+      <c r="F263" s="66"/>
+      <c r="G263" s="66"/>
+      <c r="H263" s="66"/>
+      <c r="I263" s="66"/>
+      <c r="J263" s="67"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="16"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="58"/>
-      <c r="E264" s="59"/>
-      <c r="F264" s="59"/>
-      <c r="G264" s="59"/>
-      <c r="H264" s="59"/>
-      <c r="I264" s="59"/>
-      <c r="J264" s="60"/>
+      <c r="A264" s="18"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="65"/>
+      <c r="E264" s="66"/>
+      <c r="F264" s="66"/>
+      <c r="G264" s="66"/>
+      <c r="H264" s="66"/>
+      <c r="I264" s="66"/>
+      <c r="J264" s="67"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A265" s="16"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="58"/>
-      <c r="E265" s="59"/>
-      <c r="F265" s="59"/>
-      <c r="G265" s="59"/>
-      <c r="H265" s="59"/>
-      <c r="I265" s="59"/>
-      <c r="J265" s="60"/>
+      <c r="A265" s="18"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="65"/>
+      <c r="E265" s="66"/>
+      <c r="F265" s="66"/>
+      <c r="G265" s="66"/>
+      <c r="H265" s="66"/>
+      <c r="I265" s="66"/>
+      <c r="J265" s="67"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="16"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="58"/>
-      <c r="E266" s="59"/>
-      <c r="F266" s="59"/>
-      <c r="G266" s="59"/>
-      <c r="H266" s="59"/>
-      <c r="I266" s="59"/>
-      <c r="J266" s="60"/>
+      <c r="A266" s="18"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="66"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="66"/>
+      <c r="H266" s="66"/>
+      <c r="I266" s="66"/>
+      <c r="J266" s="67"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A267" s="16"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="58"/>
-      <c r="E267" s="59"/>
-      <c r="F267" s="59"/>
-      <c r="G267" s="59"/>
-      <c r="H267" s="59"/>
-      <c r="I267" s="59"/>
-      <c r="J267" s="60"/>
+      <c r="A267" s="18"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="65"/>
+      <c r="E267" s="66"/>
+      <c r="F267" s="66"/>
+      <c r="G267" s="66"/>
+      <c r="H267" s="66"/>
+      <c r="I267" s="66"/>
+      <c r="J267" s="67"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A268" s="16"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="58"/>
-      <c r="E268" s="59"/>
-      <c r="F268" s="59"/>
-      <c r="G268" s="59"/>
-      <c r="H268" s="59"/>
-      <c r="I268" s="59"/>
-      <c r="J268" s="60"/>
+      <c r="A268" s="18"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="65"/>
+      <c r="E268" s="66"/>
+      <c r="F268" s="66"/>
+      <c r="G268" s="66"/>
+      <c r="H268" s="66"/>
+      <c r="I268" s="66"/>
+      <c r="J268" s="67"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A269" s="16"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="58"/>
-      <c r="E269" s="59"/>
-      <c r="F269" s="59"/>
-      <c r="G269" s="59"/>
-      <c r="H269" s="59"/>
-      <c r="I269" s="59"/>
-      <c r="J269" s="60"/>
+      <c r="A269" s="18"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="65"/>
+      <c r="E269" s="66"/>
+      <c r="F269" s="66"/>
+      <c r="G269" s="66"/>
+      <c r="H269" s="66"/>
+      <c r="I269" s="66"/>
+      <c r="J269" s="67"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A270" s="16"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="58"/>
-      <c r="E270" s="59"/>
-      <c r="F270" s="59"/>
-      <c r="G270" s="59"/>
-      <c r="H270" s="59"/>
-      <c r="I270" s="59"/>
-      <c r="J270" s="60"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A271" s="16"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="58"/>
-      <c r="E271" s="59"/>
-      <c r="F271" s="59"/>
-      <c r="G271" s="59"/>
-      <c r="H271" s="59"/>
-      <c r="I271" s="59"/>
-      <c r="J271" s="60"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A272" s="16"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="58"/>
-      <c r="E272" s="59"/>
-      <c r="F272" s="59"/>
-      <c r="G272" s="59"/>
-      <c r="H272" s="59"/>
-      <c r="I272" s="59"/>
-      <c r="J272" s="60"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A273" s="16"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="58"/>
-      <c r="E273" s="59"/>
-      <c r="F273" s="59"/>
-      <c r="G273" s="59"/>
-      <c r="H273" s="59"/>
-      <c r="I273" s="59"/>
-      <c r="J273" s="60"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="16"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="58"/>
-      <c r="E274" s="59"/>
-      <c r="F274" s="59"/>
-      <c r="G274" s="59"/>
-      <c r="H274" s="59"/>
-      <c r="I274" s="59"/>
-      <c r="J274" s="60"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="16"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="58"/>
-      <c r="E275" s="59"/>
-      <c r="F275" s="59"/>
-      <c r="G275" s="59"/>
-      <c r="H275" s="59"/>
-      <c r="I275" s="59"/>
-      <c r="J275" s="60"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A276" s="16"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="58"/>
-      <c r="E276" s="59"/>
-      <c r="F276" s="59"/>
-      <c r="G276" s="59"/>
-      <c r="H276" s="59"/>
-      <c r="I276" s="59"/>
-      <c r="J276" s="60"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A277" s="16"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="58"/>
-      <c r="E277" s="59"/>
-      <c r="F277" s="59"/>
-      <c r="G277" s="59"/>
-      <c r="H277" s="59"/>
-      <c r="I277" s="59"/>
-      <c r="J277" s="60"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A278" s="16"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="58"/>
-      <c r="E278" s="59"/>
-      <c r="F278" s="59"/>
-      <c r="G278" s="59"/>
-      <c r="H278" s="59"/>
-      <c r="I278" s="59"/>
-      <c r="J278" s="60"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A279" s="16"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="58"/>
-      <c r="E279" s="59"/>
-      <c r="F279" s="59"/>
-      <c r="G279" s="59"/>
-      <c r="H279" s="59"/>
-      <c r="I279" s="59"/>
-      <c r="J279" s="60"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A280" s="16"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="58"/>
-      <c r="E280" s="59"/>
-      <c r="F280" s="59"/>
-      <c r="G280" s="59"/>
-      <c r="H280" s="59"/>
-      <c r="I280" s="59"/>
-      <c r="J280" s="60"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A281" s="16"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="58"/>
-      <c r="E281" s="59"/>
-      <c r="F281" s="59"/>
-      <c r="G281" s="59"/>
-      <c r="H281" s="59"/>
-      <c r="I281" s="59"/>
-      <c r="J281" s="60"/>
-    </row>
-    <row r="282" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="17"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="20"/>
-      <c r="D282" s="64"/>
-      <c r="E282" s="65"/>
-      <c r="F282" s="65"/>
-      <c r="G282" s="65"/>
-      <c r="H282" s="65"/>
-      <c r="I282" s="65"/>
-      <c r="J282" s="66"/>
-    </row>
-    <row r="283" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A270" s="18"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="65"/>
+      <c r="E270" s="66"/>
+      <c r="F270" s="66"/>
+      <c r="G270" s="66"/>
+      <c r="H270" s="66"/>
+      <c r="I270" s="66"/>
+      <c r="J270" s="67"/>
+    </row>
+    <row r="271" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="19"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="74"/>
+      <c r="E271" s="75"/>
+      <c r="F271" s="75"/>
+      <c r="G271" s="75"/>
+      <c r="H271" s="75"/>
+      <c r="I271" s="75"/>
+      <c r="J271" s="76"/>
+    </row>
+    <row r="272" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5616,7 +4916,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -5625,7 +4925,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5667,7 +4967,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5683,7 +4983,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5701,7 +5001,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -5715,7 +5015,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -5729,7 +5029,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -5743,7 +5043,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -5757,7 +5057,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -5771,7 +5071,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5789,7 +5089,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
@@ -5803,7 +5103,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -5817,7 +5117,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -5831,7 +5131,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -5845,7 +5145,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -5859,7 +5159,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -5877,7 +5177,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -5891,7 +5191,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -5905,7 +5205,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -5919,7 +5219,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -5933,7 +5233,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -5947,7 +5247,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -5961,7 +5261,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -5979,7 +5279,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -5993,7 +5293,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -6007,7 +5307,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -6021,7 +5321,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -6035,7 +5335,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -6049,7 +5349,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -6067,7 +5367,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -6081,7 +5381,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -6095,7 +5395,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -6109,7 +5409,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -6123,7 +5423,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -6137,7 +5437,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -6151,7 +5451,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -6165,7 +5465,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -6179,7 +5479,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -6195,7 +5495,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6207,7 +5507,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6219,7 +5519,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6231,7 +5531,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6243,7 +5543,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6255,7 +5555,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -6271,7 +5571,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6283,7 +5583,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6295,7 +5595,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6307,7 +5607,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6319,7 +5619,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6331,7 +5631,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6343,7 +5643,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6355,7 +5655,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6367,7 +5667,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6379,7 +5679,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6391,7 +5691,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6403,7 +5703,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6415,7 +5715,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6427,7 +5727,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6439,7 +5739,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6451,7 +5751,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6463,7 +5763,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6475,7 +5775,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6487,7 +5787,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6499,7 +5799,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6511,7 +5811,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6523,7 +5823,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6535,7 +5835,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6547,7 +5847,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6559,7 +5859,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6571,7 +5871,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6583,7 +5883,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6595,7 +5895,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6607,7 +5907,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6619,7 +5919,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6631,7 +5931,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6643,7 +5943,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6655,7 +5955,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6667,7 +5967,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6679,7 +5979,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6691,7 +5991,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6703,7 +6003,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6715,7 +6015,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6727,7 +6027,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6739,7 +6039,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6751,7 +6051,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6763,7 +6063,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6775,7 +6075,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6787,7 +6087,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6799,7 +6099,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6811,7 +6111,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6823,7 +6123,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6835,7 +6135,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6847,7 +6147,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6859,7 +6159,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6871,7 +6171,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6883,7 +6183,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6895,7 +6195,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6907,7 +6207,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6919,7 +6219,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6931,7 +6231,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6943,7 +6243,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6955,7 +6255,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6967,7 +6267,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6979,7 +6279,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6991,7 +6291,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7003,7 +6303,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7015,7 +6315,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7027,7 +6327,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7039,7 +6339,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7051,7 +6351,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7063,7 +6363,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7075,7 +6375,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7087,7 +6387,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7099,7 +6399,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7111,7 +6411,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7123,7 +6423,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7135,7 +6435,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7147,7 +6447,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7159,7 +6459,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7171,7 +6471,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7183,7 +6483,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7195,7 +6495,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7207,7 +6507,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7219,7 +6519,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7231,7 +6531,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7243,7 +6543,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7255,7 +6555,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7267,7 +6567,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7279,7 +6579,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7291,7 +6591,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7303,7 +6603,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7315,7 +6615,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7327,7 +6627,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7339,7 +6639,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7351,7 +6651,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7363,7 +6663,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7375,7 +6675,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7387,7 +6687,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7399,7 +6699,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7411,7 +6711,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7423,7 +6723,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7435,7 +6735,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7447,7 +6747,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7459,7 +6759,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7471,7 +6771,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7483,7 +6783,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7495,7 +6795,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7507,7 +6807,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7519,7 +6819,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7531,7 +6831,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7543,7 +6843,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7555,7 +6855,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7567,7 +6867,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7579,7 +6879,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7591,7 +6891,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7603,7 +6903,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7615,7 +6915,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7627,7 +6927,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7639,7 +6939,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7651,7 +6951,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7663,7 +6963,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7675,7 +6975,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7687,7 +6987,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7699,7 +6999,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7711,7 +7011,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7723,7 +7023,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7735,7 +7035,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7747,7 +7047,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7759,7 +7059,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7771,7 +7071,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7783,7 +7083,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7795,7 +7095,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7807,7 +7107,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7819,7 +7119,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7831,7 +7131,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7843,7 +7143,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7855,7 +7155,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7867,7 +7167,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7879,7 +7179,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7891,7 +7191,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7903,7 +7203,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7915,7 +7215,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7927,7 +7227,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7939,7 +7239,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7951,7 +7251,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7963,7 +7263,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7975,7 +7275,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7987,7 +7287,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7999,7 +7299,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8011,7 +7311,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8023,7 +7323,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8035,7 +7335,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8047,7 +7347,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8059,7 +7359,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8071,7 +7371,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8083,7 +7383,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8095,7 +7395,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8107,7 +7407,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8119,7 +7419,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8131,7 +7431,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8143,7 +7443,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8155,7 +7455,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8167,7 +7467,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8179,7 +7479,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8191,7 +7491,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8203,7 +7503,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8215,7 +7515,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8227,7 +7527,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8239,7 +7539,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8251,7 +7551,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8263,7 +7563,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8275,7 +7575,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8287,7 +7587,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8299,7 +7599,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8311,7 +7611,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8323,7 +7623,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8335,7 +7635,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8347,7 +7647,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8359,7 +7659,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8371,7 +7671,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8383,7 +7683,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8395,7 +7695,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8407,7 +7707,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8419,7 +7719,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8431,7 +7731,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8443,7 +7743,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8455,7 +7755,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8467,7 +7767,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8479,7 +7779,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8491,7 +7791,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8503,7 +7803,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8515,7 +7815,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8527,7 +7827,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8539,7 +7839,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8551,7 +7851,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8563,7 +7863,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8575,7 +7875,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8587,7 +7887,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8599,7 +7899,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8611,7 +7911,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8623,7 +7923,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8635,7 +7935,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8647,7 +7947,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8659,7 +7959,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8671,7 +7971,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8683,7 +7983,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8695,7 +7995,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8707,7 +8007,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8719,7 +8019,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8731,7 +8031,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8743,7 +8043,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8755,7 +8055,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8767,7 +8067,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8779,7 +8079,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8791,7 +8091,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8803,7 +8103,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8815,7 +8115,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8827,7 +8127,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8839,7 +8139,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8851,7 +8151,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8863,7 +8163,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8875,7 +8175,7 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8887,7 +8187,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8899,7 +8199,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8911,7 +8211,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8923,7 +8223,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
